--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cawvse\Google Drive\SWEN-261\repo-2022_update-branch\projects\EStoreAPI\estore-api\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\Documents\SWEN261\team-project-2225-swen-261-01-8h-8ball\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E28C0-533F-4CD5-8DA0-364123F7A634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B0393-7000-4D3A-B708-6FFB383605C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Instructions</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Your team name as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers</t>
   </si>
   <si>
     <t>Tester initials; date; comments (required if test failed)</t>
@@ -82,6 +79,105 @@
 As tests are performed in each sprint, indicate Pass/Fail.  Note that there are separate columns for each sprint.  The tester should add initials and a date in the comments column. If the test failed, the tester is required to add additional information about the failure. The status cell will color code based on the test results. The comments cell will color code when a test result exists but no information is entered.
 Save this test plan with a name formatted as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers.xslx.
 Submit this file per the instructions specified for the sprint submissions and cross-team testing.</t>
+  </si>
+  <si>
+    <t>2225-swen-261-01-8h-8ball</t>
+  </si>
+  <si>
+    <t>As a buyer I want to see all prepackaged tea/coffee options so I can choose the blend I like best</t>
+  </si>
+  <si>
+    <t>Given that I am on the product list page when I click on one of the options then I can see more information about it.</t>
+  </si>
+  <si>
+    <t>As a buyer I want to browse a list of products so that I can choose what to purchase</t>
+  </si>
+  <si>
+    <t>Given there are products in the inventory when I select to browse all products then I am taken to a list of all the products</t>
+  </si>
+  <si>
+    <t>As an owner I want to view a list of customer names, addresses, and orders so that I can fulfill shipments</t>
+  </si>
+  <si>
+    <t>Given an order has been placed when I check for orders then I should see all unfulfilled orders until I have designated them shipped</t>
+  </si>
+  <si>
+    <t>As a buyer I want to add my purchase to a single cart so I can have all my packages shipped to one location</t>
+  </si>
+  <si>
+    <t>Given I want to purchase a product when I click the add to cart button then I expect to have it saved to my cart</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to remove products from the e-store so I can eliminate unpopular blends</t>
+  </si>
+  <si>
+    <t>Given a product exists when a product is deleted then the product will be removed from the site</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to modify existing products in the e-store so I can update pricing and stock.</t>
+  </si>
+  <si>
+    <t>Given a product exists when a product is modified then the product should update in the system</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to add new products to the e-store so I can expand the potential range of customers.</t>
+  </si>
+  <si>
+    <t>Given inventory exists when create a new product then the product will be tied to the inventory</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to input my address so I can receive the contents of a cart in the mail.</t>
+  </si>
+  <si>
+    <t>Given that I am ready to have my order shipped when I enter my address then I expect to have it delivered sometime in the future</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to add new Admins to the e-store so I can delegate who can access the inventory.</t>
+  </si>
+  <si>
+    <t>Given a user account has been created when I add that account to the list of admis then the user account will be able to manage inventory</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to have my package covered in gift wrap so it can be shipped as a gift.</t>
+  </si>
+  <si>
+    <t>Given I have my package in the checkout when I select the gift option then I will be taken to choose wrapping</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add a custom picture to the packing so it can feel special and stand out.</t>
+  </si>
+  <si>
+    <t>Given I have selected the gift option when I upload my own photo then my photo will be applied to the packaging</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add a personalized card with my order so I can convey my intentions to the recipient.</t>
+  </si>
+  <si>
+    <t>Given I have a package in my checkout when I click the gift option then I will be directed to write a message</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to see the option to make a custom blend so I can mix tea leaves or coffee grounds to create a personalized package.</t>
+  </si>
+  <si>
+    <t>Given that I want to create a custom blend when I click the custom blend option then I expect to be able to see the different ingredients I can blend together</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add my packages to multiple carts so I can have certain orders shipped to different locations.</t>
+  </si>
+  <si>
+    <t>Given I want to send packages to multiple addresses when I click the add to cart button then I expect to be given the option to select which cart to add to</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to modify the privileges of an existing Admin in the e-store so I can control their capabilities.</t>
+  </si>
+  <si>
+    <t>Given an admin account exists when I change the permissions for that user then that user will have modified abilities within the store</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to remove Admins from the e-store so I can decrease the workforce.</t>
+  </si>
+  <si>
+    <t>Given there exists another admin on the website when I remove them from the admin list then they no longer have admin rights</t>
   </si>
 </sst>
 </file>
@@ -132,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,11 +245,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +286,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,38 +670,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.5" x14ac:dyDescent="0.9"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="288" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:2" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -607,12 +718,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F587"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
@@ -620,10 +731,10 @@
     <col min="4" max="4" width="60" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="5"/>
+    <col min="7" max="16384" width="10.8984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -634,2380 +745,2474 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="32.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="6" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C117" s="8"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118" s="8"/>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119" s="8"/>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120" s="8"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121" s="8"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C123" s="8"/>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C125" s="8"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126" s="8"/>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127" s="8"/>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C140" s="8"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C141" s="8"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C142" s="8"/>
       <c r="E142" s="8"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C160" s="8"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C161" s="8"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C185" s="8"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" s="8"/>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C190" s="8"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" s="8"/>
       <c r="E191" s="8"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C192" s="8"/>
       <c r="E192" s="8"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C193" s="8"/>
       <c r="E193" s="8"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C194" s="8"/>
       <c r="E194" s="8"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C195" s="8"/>
       <c r="E195" s="8"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C196" s="8"/>
       <c r="E196" s="8"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C197" s="8"/>
       <c r="E197" s="8"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C198" s="8"/>
       <c r="E198" s="8"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C200" s="8"/>
       <c r="E200" s="8"/>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C201" s="8"/>
       <c r="E201" s="8"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C202" s="8"/>
       <c r="E202" s="8"/>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C203" s="8"/>
       <c r="E203" s="8"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C204" s="8"/>
       <c r="E204" s="8"/>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C205" s="8"/>
       <c r="E205" s="8"/>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C206" s="8"/>
       <c r="E206" s="8"/>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C207" s="8"/>
       <c r="E207" s="8"/>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C208" s="8"/>
       <c r="E208" s="8"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="8"/>
       <c r="E209" s="8"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" s="8"/>
       <c r="E210" s="8"/>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" s="8"/>
       <c r="E211" s="8"/>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C212" s="8"/>
       <c r="E212" s="8"/>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C213" s="8"/>
       <c r="E213" s="8"/>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" s="8"/>
       <c r="E214" s="8"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C215" s="8"/>
       <c r="E215" s="8"/>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C216" s="8"/>
       <c r="E216" s="8"/>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C217" s="8"/>
       <c r="E217" s="8"/>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C218" s="8"/>
       <c r="E218" s="8"/>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C219" s="8"/>
       <c r="E219" s="8"/>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C220" s="8"/>
       <c r="E220" s="8"/>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C221" s="8"/>
       <c r="E221" s="8"/>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C222" s="8"/>
       <c r="E222" s="8"/>
     </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C223" s="8"/>
       <c r="E223" s="8"/>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C224" s="8"/>
       <c r="E224" s="8"/>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C225" s="8"/>
       <c r="E225" s="8"/>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C226" s="8"/>
       <c r="E226" s="8"/>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C227" s="8"/>
       <c r="E227" s="8"/>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C228" s="8"/>
       <c r="E228" s="8"/>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C229" s="8"/>
       <c r="E229" s="8"/>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" s="8"/>
       <c r="E230" s="8"/>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" s="8"/>
       <c r="E231" s="8"/>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" s="8"/>
       <c r="E232" s="8"/>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C233" s="8"/>
       <c r="E233" s="8"/>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C234" s="8"/>
       <c r="E234" s="8"/>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C235" s="8"/>
       <c r="E235" s="8"/>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C236" s="8"/>
       <c r="E236" s="8"/>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" s="8"/>
       <c r="E237" s="8"/>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C238" s="8"/>
       <c r="E238" s="8"/>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C239" s="8"/>
       <c r="E239" s="8"/>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C240" s="8"/>
       <c r="E240" s="8"/>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C241" s="8"/>
       <c r="E241" s="8"/>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C242" s="8"/>
       <c r="E242" s="8"/>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C244" s="8"/>
       <c r="E244" s="8"/>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C245" s="8"/>
       <c r="E245" s="8"/>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C246" s="8"/>
       <c r="E246" s="8"/>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C247" s="8"/>
       <c r="E247" s="8"/>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C248" s="8"/>
       <c r="E248" s="8"/>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="249" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C249" s="8"/>
       <c r="E249" s="8"/>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="250" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C250" s="8"/>
       <c r="E250" s="8"/>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="251" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C251" s="8"/>
       <c r="E251" s="8"/>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="252" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C252" s="8"/>
       <c r="E252" s="8"/>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="253" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C253" s="8"/>
       <c r="E253" s="8"/>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="254" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C254" s="8"/>
       <c r="E254" s="8"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="255" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C255" s="8"/>
       <c r="E255" s="8"/>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="256" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C256" s="8"/>
       <c r="E256" s="8"/>
     </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="257" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C257" s="8"/>
       <c r="E257" s="8"/>
     </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="258" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C258" s="8"/>
       <c r="E258" s="8"/>
     </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="259" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C259" s="8"/>
       <c r="E259" s="8"/>
     </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="260" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C260" s="8"/>
       <c r="E260" s="8"/>
     </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="261" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C261" s="8"/>
       <c r="E261" s="8"/>
     </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="262" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C262" s="8"/>
       <c r="E262" s="8"/>
     </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="263" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C263" s="8"/>
       <c r="E263" s="8"/>
     </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="264" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C264" s="8"/>
       <c r="E264" s="8"/>
     </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="265" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="266" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C266" s="8"/>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="267" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C267" s="8"/>
       <c r="E267" s="8"/>
     </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="268" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C268" s="8"/>
       <c r="E268" s="8"/>
     </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="269" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C269" s="8"/>
       <c r="E269" s="8"/>
     </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="270" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C270" s="8"/>
       <c r="E270" s="8"/>
     </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="271" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C271" s="8"/>
       <c r="E271" s="8"/>
     </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="272" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C272" s="8"/>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="273" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C273" s="8"/>
       <c r="E273" s="8"/>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="274" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C274" s="8"/>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="275" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C275" s="8"/>
       <c r="E275" s="8"/>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="276" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C276" s="8"/>
       <c r="E276" s="8"/>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="277" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C277" s="8"/>
       <c r="E277" s="8"/>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="278" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C278" s="8"/>
       <c r="E278" s="8"/>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="279" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C279" s="8"/>
       <c r="E279" s="8"/>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="280" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C280" s="8"/>
       <c r="E280" s="8"/>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="281" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C281" s="8"/>
       <c r="E281" s="8"/>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="282" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C282" s="8"/>
       <c r="E282" s="8"/>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="283" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C283" s="8"/>
       <c r="E283" s="8"/>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C284" s="8"/>
       <c r="E284" s="8"/>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="285" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C285" s="8"/>
       <c r="E285" s="8"/>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="286" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C286" s="8"/>
       <c r="E286" s="8"/>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="287" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="288" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C288" s="8"/>
       <c r="E288" s="8"/>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="289" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C289" s="8"/>
       <c r="E289" s="8"/>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="290" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C290" s="8"/>
       <c r="E290" s="8"/>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="291" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C291" s="8"/>
       <c r="E291" s="8"/>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="292" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C292" s="8"/>
       <c r="E292" s="8"/>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C293" s="8"/>
       <c r="E293" s="8"/>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="294" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C294" s="8"/>
       <c r="E294" s="8"/>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="295" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C295" s="8"/>
       <c r="E295" s="8"/>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="296" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C296" s="8"/>
       <c r="E296" s="8"/>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="297" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C297" s="8"/>
       <c r="E297" s="8"/>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C298" s="8"/>
       <c r="E298" s="8"/>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="299" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C299" s="8"/>
       <c r="E299" s="8"/>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="300" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C300" s="8"/>
       <c r="E300" s="8"/>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="301" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C301" s="8"/>
       <c r="E301" s="8"/>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="302" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C302" s="8"/>
       <c r="E302" s="8"/>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="303" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C303" s="8"/>
       <c r="E303" s="8"/>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="304" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C304" s="8"/>
       <c r="E304" s="8"/>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C305" s="8"/>
       <c r="E305" s="8"/>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C306" s="8"/>
       <c r="E306" s="8"/>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C307" s="8"/>
       <c r="E307" s="8"/>
     </row>
-    <row r="308" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C308" s="8"/>
       <c r="E308" s="8"/>
     </row>
-    <row r="309" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C310" s="8"/>
       <c r="E310" s="8"/>
     </row>
-    <row r="311" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C311" s="8"/>
       <c r="E311" s="8"/>
     </row>
-    <row r="312" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C312" s="8"/>
       <c r="E312" s="8"/>
     </row>
-    <row r="313" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C313" s="8"/>
       <c r="E313" s="8"/>
     </row>
-    <row r="314" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C314" s="8"/>
       <c r="E314" s="8"/>
     </row>
-    <row r="315" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C315" s="8"/>
       <c r="E315" s="8"/>
     </row>
-    <row r="316" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C316" s="8"/>
       <c r="E316" s="8"/>
     </row>
-    <row r="317" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C317" s="8"/>
       <c r="E317" s="8"/>
     </row>
-    <row r="318" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C318" s="8"/>
       <c r="E318" s="8"/>
     </row>
-    <row r="319" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C319" s="8"/>
       <c r="E319" s="8"/>
     </row>
-    <row r="320" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C320" s="8"/>
       <c r="E320" s="8"/>
     </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C321" s="8"/>
       <c r="E321" s="8"/>
     </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C322" s="8"/>
       <c r="E322" s="8"/>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C323" s="8"/>
       <c r="E323" s="8"/>
     </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C324" s="8"/>
       <c r="E324" s="8"/>
     </row>
-    <row r="325" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C325" s="8"/>
       <c r="E325" s="8"/>
     </row>
-    <row r="326" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C326" s="8"/>
       <c r="E326" s="8"/>
     </row>
-    <row r="327" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C327" s="8"/>
       <c r="E327" s="8"/>
     </row>
-    <row r="328" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C328" s="8"/>
       <c r="E328" s="8"/>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C329" s="8"/>
       <c r="E329" s="8"/>
     </row>
-    <row r="330" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C330" s="8"/>
       <c r="E330" s="8"/>
     </row>
-    <row r="331" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C331" s="8"/>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C332" s="8"/>
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C333" s="8"/>
       <c r="E333" s="8"/>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C334" s="8"/>
       <c r="E334" s="8"/>
     </row>
-    <row r="335" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C335" s="8"/>
       <c r="E335" s="8"/>
     </row>
-    <row r="336" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C336" s="8"/>
       <c r="E336" s="8"/>
     </row>
-    <row r="337" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="337" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C337" s="8"/>
       <c r="E337" s="8"/>
     </row>
-    <row r="338" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="338" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C338" s="8"/>
       <c r="E338" s="8"/>
     </row>
-    <row r="339" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="339" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C339" s="8"/>
       <c r="E339" s="8"/>
     </row>
-    <row r="340" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="340" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C340" s="8"/>
       <c r="E340" s="8"/>
     </row>
-    <row r="341" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="341" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C341" s="8"/>
       <c r="E341" s="8"/>
     </row>
-    <row r="342" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="342" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C342" s="8"/>
       <c r="E342" s="8"/>
     </row>
-    <row r="343" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="343" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C343" s="8"/>
       <c r="E343" s="8"/>
     </row>
-    <row r="344" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="344" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C344" s="8"/>
       <c r="E344" s="8"/>
     </row>
-    <row r="345" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="345" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C345" s="8"/>
       <c r="E345" s="8"/>
     </row>
-    <row r="346" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C346" s="8"/>
       <c r="E346" s="8"/>
     </row>
-    <row r="347" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C347" s="8"/>
       <c r="E347" s="8"/>
     </row>
-    <row r="348" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="348" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C348" s="8"/>
       <c r="E348" s="8"/>
     </row>
-    <row r="349" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="349" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C349" s="8"/>
       <c r="E349" s="8"/>
     </row>
-    <row r="350" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="350" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C350" s="8"/>
       <c r="E350" s="8"/>
     </row>
-    <row r="351" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="351" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C351" s="8"/>
       <c r="E351" s="8"/>
     </row>
-    <row r="352" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="352" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C352" s="8"/>
       <c r="E352" s="8"/>
     </row>
-    <row r="353" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C353" s="8"/>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C354" s="8"/>
       <c r="E354" s="8"/>
     </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C355" s="8"/>
       <c r="E355" s="8"/>
     </row>
-    <row r="356" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="356" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="357" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C357" s="8"/>
       <c r="E357" s="8"/>
     </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="358" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C358" s="8"/>
       <c r="E358" s="8"/>
     </row>
-    <row r="359" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="359" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C359" s="8"/>
       <c r="E359" s="8"/>
     </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C360" s="8"/>
       <c r="E360" s="8"/>
     </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="361" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C361" s="8"/>
       <c r="E361" s="8"/>
     </row>
-    <row r="362" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="362" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C362" s="8"/>
       <c r="E362" s="8"/>
     </row>
-    <row r="363" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="363" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C363" s="8"/>
       <c r="E363" s="8"/>
     </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="364" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C364" s="8"/>
       <c r="E364" s="8"/>
     </row>
-    <row r="365" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="365" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C365" s="8"/>
       <c r="E365" s="8"/>
     </row>
-    <row r="366" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C366" s="8"/>
       <c r="E366" s="8"/>
     </row>
-    <row r="367" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="367" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C367" s="8"/>
       <c r="E367" s="8"/>
     </row>
-    <row r="368" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="368" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C368" s="8"/>
       <c r="E368" s="8"/>
     </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="369" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C369" s="8"/>
       <c r="E369" s="8"/>
     </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="370" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C370" s="8"/>
       <c r="E370" s="8"/>
     </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="371" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C371" s="8"/>
       <c r="E371" s="8"/>
     </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="372" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C372" s="8"/>
       <c r="E372" s="8"/>
     </row>
-    <row r="373" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="373" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C373" s="8"/>
       <c r="E373" s="8"/>
     </row>
-    <row r="374" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="374" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C374" s="8"/>
       <c r="E374" s="8"/>
     </row>
-    <row r="375" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="375" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C375" s="8"/>
       <c r="E375" s="8"/>
     </row>
-    <row r="376" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="376" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C376" s="8"/>
       <c r="E376" s="8"/>
     </row>
-    <row r="377" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="377" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C377" s="8"/>
       <c r="E377" s="8"/>
     </row>
-    <row r="378" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="378" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C378" s="8"/>
       <c r="E378" s="8"/>
     </row>
-    <row r="379" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="379" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C379" s="8"/>
       <c r="E379" s="8"/>
     </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="380" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C380" s="8"/>
       <c r="E380" s="8"/>
     </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="381" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C381" s="8"/>
       <c r="E381" s="8"/>
     </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="382" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C382" s="8"/>
       <c r="E382" s="8"/>
     </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="383" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C383" s="8"/>
       <c r="E383" s="8"/>
     </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="384" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C384" s="8"/>
       <c r="E384" s="8"/>
     </row>
-    <row r="385" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="385" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C385" s="8"/>
       <c r="E385" s="8"/>
     </row>
-    <row r="386" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="386" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C386" s="8"/>
       <c r="E386" s="8"/>
     </row>
-    <row r="387" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="387" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C387" s="8"/>
       <c r="E387" s="8"/>
     </row>
-    <row r="388" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="388" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C388" s="8"/>
       <c r="E388" s="8"/>
     </row>
-    <row r="389" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="389" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C389" s="8"/>
       <c r="E389" s="8"/>
     </row>
-    <row r="390" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="390" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C390" s="8"/>
       <c r="E390" s="8"/>
     </row>
-    <row r="391" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="391" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C391" s="8"/>
       <c r="E391" s="8"/>
     </row>
-    <row r="392" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="392" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C392" s="8"/>
       <c r="E392" s="8"/>
     </row>
-    <row r="393" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="393" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C393" s="8"/>
       <c r="E393" s="8"/>
     </row>
-    <row r="394" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="394" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C394" s="8"/>
       <c r="E394" s="8"/>
     </row>
-    <row r="395" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="395" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C395" s="8"/>
       <c r="E395" s="8"/>
     </row>
-    <row r="396" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="396" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C396" s="8"/>
       <c r="E396" s="8"/>
     </row>
-    <row r="397" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="397" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C397" s="8"/>
       <c r="E397" s="8"/>
     </row>
-    <row r="398" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="398" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C398" s="8"/>
       <c r="E398" s="8"/>
     </row>
-    <row r="399" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="399" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C399" s="8"/>
       <c r="E399" s="8"/>
     </row>
-    <row r="400" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="400" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C400" s="8"/>
       <c r="E400" s="8"/>
     </row>
-    <row r="401" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="401" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C401" s="8"/>
       <c r="E401" s="8"/>
     </row>
-    <row r="402" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="402" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C402" s="8"/>
       <c r="E402" s="8"/>
     </row>
-    <row r="403" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="403" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C403" s="8"/>
       <c r="E403" s="8"/>
     </row>
-    <row r="404" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="404" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C404" s="8"/>
       <c r="E404" s="8"/>
     </row>
-    <row r="405" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="405" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C405" s="8"/>
       <c r="E405" s="8"/>
     </row>
-    <row r="406" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="406" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C406" s="8"/>
       <c r="E406" s="8"/>
     </row>
-    <row r="407" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="407" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C407" s="8"/>
       <c r="E407" s="8"/>
     </row>
-    <row r="408" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="408" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C408" s="8"/>
       <c r="E408" s="8"/>
     </row>
-    <row r="409" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="409" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C409" s="8"/>
       <c r="E409" s="8"/>
     </row>
-    <row r="410" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="410" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C410" s="8"/>
       <c r="E410" s="8"/>
     </row>
-    <row r="411" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="411" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C411" s="8"/>
       <c r="E411" s="8"/>
     </row>
-    <row r="412" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="412" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C412" s="8"/>
       <c r="E412" s="8"/>
     </row>
-    <row r="413" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="413" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C413" s="8"/>
       <c r="E413" s="8"/>
     </row>
-    <row r="414" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="414" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C414" s="8"/>
       <c r="E414" s="8"/>
     </row>
-    <row r="415" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="415" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C415" s="8"/>
       <c r="E415" s="8"/>
     </row>
-    <row r="416" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="416" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C416" s="8"/>
       <c r="E416" s="8"/>
     </row>
-    <row r="417" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="417" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C417" s="8"/>
       <c r="E417" s="8"/>
     </row>
-    <row r="418" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="418" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C418" s="8"/>
       <c r="E418" s="8"/>
     </row>
-    <row r="419" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="419" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C419" s="8"/>
       <c r="E419" s="8"/>
     </row>
-    <row r="420" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="420" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C420" s="8"/>
       <c r="E420" s="8"/>
     </row>
-    <row r="421" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="421" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C421" s="8"/>
       <c r="E421" s="8"/>
     </row>
-    <row r="422" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="422" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C422" s="8"/>
       <c r="E422" s="8"/>
     </row>
-    <row r="423" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="423" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C423" s="8"/>
       <c r="E423" s="8"/>
     </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C424" s="8"/>
       <c r="E424" s="8"/>
     </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C425" s="8"/>
       <c r="E425" s="8"/>
     </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C426" s="8"/>
       <c r="E426" s="8"/>
     </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C427" s="8"/>
       <c r="E427" s="8"/>
     </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C428" s="8"/>
       <c r="E428" s="8"/>
     </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C429" s="8"/>
       <c r="E429" s="8"/>
     </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C430" s="8"/>
       <c r="E430" s="8"/>
     </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C431" s="8"/>
       <c r="E431" s="8"/>
     </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C432" s="8"/>
       <c r="E432" s="8"/>
     </row>
-    <row r="433" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="433" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C433" s="8"/>
       <c r="E433" s="8"/>
     </row>
-    <row r="434" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="434" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C434" s="8"/>
       <c r="E434" s="8"/>
     </row>
-    <row r="435" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="435" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C435" s="8"/>
       <c r="E435" s="8"/>
     </row>
-    <row r="436" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="436" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C436" s="8"/>
       <c r="E436" s="8"/>
     </row>
-    <row r="437" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="437" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C437" s="8"/>
       <c r="E437" s="8"/>
     </row>
-    <row r="438" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="438" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C438" s="8"/>
       <c r="E438" s="8"/>
     </row>
-    <row r="439" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="439" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C439" s="8"/>
       <c r="E439" s="8"/>
     </row>
-    <row r="440" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="440" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C440" s="8"/>
       <c r="E440" s="8"/>
     </row>
-    <row r="441" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="441" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C441" s="8"/>
       <c r="E441" s="8"/>
     </row>
-    <row r="442" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="442" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C442" s="8"/>
       <c r="E442" s="8"/>
     </row>
-    <row r="443" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="443" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C443" s="8"/>
       <c r="E443" s="8"/>
     </row>
-    <row r="444" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="444" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C444" s="8"/>
       <c r="E444" s="8"/>
     </row>
-    <row r="445" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="445" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C445" s="8"/>
       <c r="E445" s="8"/>
     </row>
-    <row r="446" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="446" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C446" s="8"/>
       <c r="E446" s="8"/>
     </row>
-    <row r="447" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="447" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C447" s="8"/>
       <c r="E447" s="8"/>
     </row>
-    <row r="448" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="448" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C448" s="8"/>
       <c r="E448" s="8"/>
     </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="449" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C449" s="8"/>
       <c r="E449" s="8"/>
     </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="450" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C450" s="8"/>
       <c r="E450" s="8"/>
     </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="451" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C451" s="8"/>
       <c r="E451" s="8"/>
     </row>
-    <row r="452" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="452" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C452" s="8"/>
       <c r="E452" s="8"/>
     </row>
-    <row r="453" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="453" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C453" s="8"/>
       <c r="E453" s="8"/>
     </row>
-    <row r="454" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="454" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C454" s="8"/>
       <c r="E454" s="8"/>
     </row>
-    <row r="455" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="455" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C455" s="8"/>
       <c r="E455" s="8"/>
     </row>
-    <row r="456" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="456" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C456" s="8"/>
       <c r="E456" s="8"/>
     </row>
-    <row r="457" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="457" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C457" s="8"/>
       <c r="E457" s="8"/>
     </row>
-    <row r="458" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="458" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C458" s="8"/>
       <c r="E458" s="8"/>
     </row>
-    <row r="459" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="459" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C459" s="8"/>
       <c r="E459" s="8"/>
     </row>
-    <row r="460" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="460" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C460" s="8"/>
       <c r="E460" s="8"/>
     </row>
-    <row r="461" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="461" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C461" s="8"/>
       <c r="E461" s="8"/>
     </row>
-    <row r="462" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="462" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C462" s="8"/>
       <c r="E462" s="8"/>
     </row>
-    <row r="463" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="463" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C463" s="8"/>
       <c r="E463" s="8"/>
     </row>
-    <row r="464" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="464" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C464" s="8"/>
       <c r="E464" s="8"/>
     </row>
-    <row r="465" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="465" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C465" s="8"/>
       <c r="E465" s="8"/>
     </row>
-    <row r="466" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="466" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C466" s="8"/>
       <c r="E466" s="8"/>
     </row>
-    <row r="467" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="467" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C467" s="8"/>
       <c r="E467" s="8"/>
     </row>
-    <row r="468" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="468" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C468" s="8"/>
       <c r="E468" s="8"/>
     </row>
-    <row r="469" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="469" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C469" s="8"/>
       <c r="E469" s="8"/>
     </row>
-    <row r="470" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="470" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C470" s="8"/>
       <c r="E470" s="8"/>
     </row>
-    <row r="471" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="471" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C471" s="8"/>
       <c r="E471" s="8"/>
     </row>
-    <row r="472" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="472" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C472" s="8"/>
       <c r="E472" s="8"/>
     </row>
-    <row r="473" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="473" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C473" s="8"/>
       <c r="E473" s="8"/>
     </row>
-    <row r="474" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="474" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C474" s="8"/>
       <c r="E474" s="8"/>
     </row>
-    <row r="475" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="475" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C475" s="8"/>
       <c r="E475" s="8"/>
     </row>
-    <row r="476" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="476" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C476" s="8"/>
       <c r="E476" s="8"/>
     </row>
-    <row r="477" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="477" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C477" s="8"/>
       <c r="E477" s="8"/>
     </row>
-    <row r="478" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="478" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C478" s="8"/>
       <c r="E478" s="8"/>
     </row>
-    <row r="479" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="479" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C479" s="8"/>
       <c r="E479" s="8"/>
     </row>
-    <row r="480" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="480" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C480" s="8"/>
       <c r="E480" s="8"/>
     </row>
-    <row r="481" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="481" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C481" s="8"/>
       <c r="E481" s="8"/>
     </row>
-    <row r="482" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="482" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C482" s="8"/>
       <c r="E482" s="8"/>
     </row>
-    <row r="483" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="483" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C483" s="8"/>
       <c r="E483" s="8"/>
     </row>
-    <row r="484" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="484" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C484" s="8"/>
       <c r="E484" s="8"/>
     </row>
-    <row r="485" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="485" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C485" s="8"/>
       <c r="E485" s="8"/>
     </row>
-    <row r="486" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="486" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C486" s="8"/>
       <c r="E486" s="8"/>
     </row>
-    <row r="487" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="487" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C487" s="8"/>
       <c r="E487" s="8"/>
     </row>
-    <row r="488" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="488" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C488" s="8"/>
       <c r="E488" s="8"/>
     </row>
-    <row r="489" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="489" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C489" s="8"/>
       <c r="E489" s="8"/>
     </row>
-    <row r="490" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="490" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C490" s="8"/>
       <c r="E490" s="8"/>
     </row>
-    <row r="491" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="491" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C491" s="8"/>
       <c r="E491" s="8"/>
     </row>
-    <row r="492" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="492" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C492" s="8"/>
       <c r="E492" s="8"/>
     </row>
-    <row r="493" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="493" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C493" s="8"/>
       <c r="E493" s="8"/>
     </row>
-    <row r="494" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="494" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C494" s="8"/>
       <c r="E494" s="8"/>
     </row>
-    <row r="495" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="495" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C495" s="8"/>
       <c r="E495" s="8"/>
     </row>
-    <row r="496" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="496" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C496" s="8"/>
       <c r="E496" s="8"/>
     </row>
-    <row r="497" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="497" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C497" s="8"/>
       <c r="E497" s="8"/>
     </row>
-    <row r="498" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="498" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C498" s="8"/>
       <c r="E498" s="8"/>
     </row>
-    <row r="499" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="499" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C499" s="8"/>
       <c r="E499" s="8"/>
     </row>
-    <row r="500" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="500" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C500" s="8"/>
       <c r="E500" s="8"/>
     </row>
-    <row r="501" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="501" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C501" s="8"/>
       <c r="E501" s="8"/>
     </row>
-    <row r="502" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="502" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C502" s="8"/>
       <c r="E502" s="8"/>
     </row>
-    <row r="503" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="503" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C503" s="8"/>
       <c r="E503" s="8"/>
     </row>
-    <row r="504" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="504" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C504" s="8"/>
       <c r="E504" s="8"/>
     </row>
-    <row r="505" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="505" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C505" s="8"/>
       <c r="E505" s="8"/>
     </row>
-    <row r="506" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="506" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C506" s="8"/>
       <c r="E506" s="8"/>
     </row>
-    <row r="507" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="507" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C507" s="8"/>
       <c r="E507" s="8"/>
     </row>
-    <row r="508" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="508" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C508" s="8"/>
       <c r="E508" s="8"/>
     </row>
-    <row r="509" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="509" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C509" s="8"/>
       <c r="E509" s="8"/>
     </row>
-    <row r="510" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="510" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C510" s="8"/>
       <c r="E510" s="8"/>
     </row>
-    <row r="511" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="511" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C511" s="8"/>
       <c r="E511" s="8"/>
     </row>
-    <row r="512" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="512" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C512" s="8"/>
       <c r="E512" s="8"/>
     </row>
-    <row r="513" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="513" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C513" s="8"/>
       <c r="E513" s="8"/>
     </row>
-    <row r="514" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="514" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C514" s="8"/>
       <c r="E514" s="8"/>
     </row>
-    <row r="515" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="515" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C515" s="8"/>
       <c r="E515" s="8"/>
     </row>
-    <row r="516" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="516" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C516" s="8"/>
       <c r="E516" s="8"/>
     </row>
-    <row r="517" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="517" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C517" s="8"/>
       <c r="E517" s="8"/>
     </row>
-    <row r="518" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="518" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C518" s="8"/>
       <c r="E518" s="8"/>
     </row>
-    <row r="519" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="519" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C519" s="8"/>
       <c r="E519" s="8"/>
     </row>
-    <row r="520" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="520" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C520" s="8"/>
       <c r="E520" s="8"/>
     </row>
-    <row r="521" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="521" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C521" s="8"/>
       <c r="E521" s="8"/>
     </row>
-    <row r="522" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="522" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C522" s="8"/>
       <c r="E522" s="8"/>
     </row>
-    <row r="523" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="523" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C523" s="8"/>
       <c r="E523" s="8"/>
     </row>
-    <row r="524" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="524" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C524" s="8"/>
       <c r="E524" s="8"/>
     </row>
-    <row r="525" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="525" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C525" s="8"/>
       <c r="E525" s="8"/>
     </row>
-    <row r="526" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="526" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C526" s="8"/>
       <c r="E526" s="8"/>
     </row>
-    <row r="527" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="527" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C527" s="8"/>
       <c r="E527" s="8"/>
     </row>
-    <row r="528" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="528" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C528" s="8"/>
       <c r="E528" s="8"/>
     </row>
-    <row r="529" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="529" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C529" s="8"/>
       <c r="E529" s="8"/>
     </row>
-    <row r="530" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="530" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C530" s="8"/>
       <c r="E530" s="8"/>
     </row>
-    <row r="531" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="531" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C531" s="8"/>
       <c r="E531" s="8"/>
     </row>
-    <row r="532" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="532" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C532" s="8"/>
       <c r="E532" s="8"/>
     </row>
-    <row r="533" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="533" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C533" s="8"/>
       <c r="E533" s="8"/>
     </row>
-    <row r="534" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="534" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C534" s="8"/>
       <c r="E534" s="8"/>
     </row>
-    <row r="535" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="535" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C535" s="8"/>
       <c r="E535" s="8"/>
     </row>
-    <row r="536" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="536" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C536" s="8"/>
       <c r="E536" s="8"/>
     </row>
-    <row r="537" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="537" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C537" s="8"/>
       <c r="E537" s="8"/>
     </row>
-    <row r="538" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="538" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C538" s="8"/>
       <c r="E538" s="8"/>
     </row>
-    <row r="539" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="539" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C539" s="8"/>
       <c r="E539" s="8"/>
     </row>
-    <row r="540" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="540" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C540" s="8"/>
       <c r="E540" s="8"/>
     </row>
-    <row r="541" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="541" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C541" s="8"/>
       <c r="E541" s="8"/>
     </row>
-    <row r="542" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="542" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C542" s="8"/>
       <c r="E542" s="8"/>
     </row>
-    <row r="543" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="543" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C543" s="8"/>
       <c r="E543" s="8"/>
     </row>
-    <row r="544" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="544" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C544" s="8"/>
       <c r="E544" s="8"/>
     </row>
-    <row r="545" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="545" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C545" s="8"/>
       <c r="E545" s="8"/>
     </row>
-    <row r="546" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="546" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C546" s="8"/>
       <c r="E546" s="8"/>
     </row>
-    <row r="547" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="547" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C547" s="8"/>
       <c r="E547" s="8"/>
     </row>
-    <row r="548" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="548" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C548" s="8"/>
       <c r="E548" s="8"/>
     </row>
-    <row r="549" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="549" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C549" s="8"/>
       <c r="E549" s="8"/>
     </row>
-    <row r="550" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="550" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C550" s="8"/>
       <c r="E550" s="8"/>
     </row>
-    <row r="551" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="551" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C551" s="8"/>
       <c r="E551" s="8"/>
     </row>
-    <row r="552" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="552" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C552" s="8"/>
       <c r="E552" s="8"/>
     </row>
-    <row r="553" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="553" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C553" s="8"/>
       <c r="E553" s="8"/>
     </row>
-    <row r="554" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="554" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C554" s="8"/>
       <c r="E554" s="8"/>
     </row>
-    <row r="555" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="555" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C555" s="8"/>
       <c r="E555" s="8"/>
     </row>
-    <row r="556" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="556" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C556" s="8"/>
       <c r="E556" s="8"/>
     </row>
-    <row r="557" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="557" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C557" s="8"/>
       <c r="E557" s="8"/>
     </row>
-    <row r="558" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="558" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C558" s="8"/>
       <c r="E558" s="8"/>
     </row>
-    <row r="559" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="559" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C559" s="8"/>
       <c r="E559" s="8"/>
     </row>
-    <row r="560" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="560" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C560" s="8"/>
       <c r="E560" s="8"/>
     </row>
-    <row r="561" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="561" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C561" s="8"/>
       <c r="E561" s="8"/>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C562" s="8"/>
       <c r="E562" s="8"/>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C563" s="8"/>
       <c r="E563" s="8"/>
     </row>
-    <row r="564" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="564" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C564" s="8"/>
       <c r="E564" s="8"/>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C565" s="8"/>
       <c r="E565" s="8"/>
     </row>
-    <row r="566" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="566" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C566" s="8"/>
       <c r="E566" s="8"/>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C567" s="8"/>
       <c r="E567" s="8"/>
     </row>
-    <row r="568" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="568" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C568" s="8"/>
       <c r="E568" s="8"/>
     </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C569" s="8"/>
       <c r="E569" s="8"/>
     </row>
-    <row r="570" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="570" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C570" s="8"/>
       <c r="E570" s="8"/>
     </row>
-    <row r="571" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="571" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C571" s="8"/>
       <c r="E571" s="8"/>
     </row>
-    <row r="572" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="572" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C572" s="8"/>
       <c r="E572" s="8"/>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="573" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C573" s="8"/>
       <c r="E573" s="8"/>
     </row>
-    <row r="574" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="574" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C574" s="8"/>
       <c r="E574" s="8"/>
     </row>
-    <row r="575" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="575" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C575" s="8"/>
       <c r="E575" s="8"/>
     </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="576" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C576" s="8"/>
       <c r="E576" s="8"/>
     </row>
-    <row r="577" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="577" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C577" s="8"/>
       <c r="E577" s="8"/>
     </row>
-    <row r="578" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="578" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C578" s="8"/>
       <c r="E578" s="8"/>
     </row>
-    <row r="579" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="579" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C579" s="8"/>
       <c r="E579" s="8"/>
     </row>
-    <row r="580" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="580" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C580" s="8"/>
       <c r="E580" s="8"/>
     </row>
-    <row r="581" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="581" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C581" s="8"/>
       <c r="E581" s="8"/>
     </row>
-    <row r="582" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="582" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C582" s="8"/>
       <c r="E582" s="8"/>
     </row>
-    <row r="583" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="583" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C583" s="8"/>
       <c r="E583" s="8"/>
     </row>
-    <row r="584" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="584" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C584" s="8"/>
       <c r="E584" s="8"/>
     </row>
-    <row r="585" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="585" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C585" s="8"/>
       <c r="E585" s="8"/>
     </row>
-    <row r="586" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="586" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C586" s="8"/>
       <c r="E586" s="8"/>
     </row>
-    <row r="587" spans="3:5" x14ac:dyDescent="0.8">
+    <row r="587" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C587" s="8"/>
       <c r="E587" s="8"/>
     </row>
@@ -3035,7 +3240,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\Documents\SWEN261\team-project-2225-swen-261-01-8h-8ball\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B0393-7000-4D3A-B708-6FFB383605C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEC7CBC-7E7B-4C2B-82A8-9F4B3F41F31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>Instructions</t>
   </si>
@@ -178,6 +178,69 @@
   </si>
   <si>
     <t>Given there exists another admin on the website when I remove them from the admin list then they no longer have admin rights</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>As a User I want to Login with my username and password so that I can see my customized store experience.</t>
+  </si>
+  <si>
+    <t>**Given** A user exists **when** I input the correct username and passwords **then** I should be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>**Given** I am not logged in **when** I attempt to go to any page besides register/login **then** I should be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>**Given** A user does not have my email **when** I register **then** it should create a new User in the API.</t>
+  </si>
+  <si>
+    <t>**Given** I am logged in **when** I go to login or register **then** I should be sent to home.</t>
+  </si>
+  <si>
+    <t>As a Manager I want to manage ingredients so that I can update inventory as it changes and ingredients are depleted.</t>
+  </si>
+  <si>
+    <t>**Given** I am an admin **when** I log in **then** I will see a list of ingredients.</t>
+  </si>
+  <si>
+    <t>**Given** an ingredient exists **when** I click on the ingredient **then** I will see the ingredients details.</t>
+  </si>
+  <si>
+    <t>**Given** an ingredient exists **when** I click on add stock **then** the given amount will be added to the inventory.</t>
+  </si>
+  <si>
+    <t>**Given** I am in ingredient details **when** I click update **then** the API should update.</t>
+  </si>
+  <si>
+    <t>**Given** I am in ingredient details **when** I click delete **then** the API should delete the current ingredient.</t>
+  </si>
+  <si>
+    <t>**Given** a user account is an admin **when** I revoke admin status **then** the user account will be no longer be an admin.</t>
+  </si>
+  <si>
+    <t>As a User I want to modify my profile so that I can keep my information up to date.</t>
+  </si>
+  <si>
+    <t>**Given** I have created an account **when** I click on User Settings **then** I should see a screen where all my information appears.</t>
+  </si>
+  <si>
+    <t>**Given** I am in the user settings page **when** I modify my information and click save **then** my information should be updated.</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to checkout my cart so that I can pay for and receive my blends.</t>
+  </si>
+  <si>
+    <t>**Given** that I have a cart of products **when** I click checkout **then** I am taken to a checkout screen to confirm my order.</t>
+  </si>
+  <si>
+    <t>**Given** that I am in the checkout screen **when** I select my payment method **then** That payment method will be used for this order.</t>
+  </si>
+  <si>
+    <t>**Given** I am in the checkout **when** I click purchase **then** my cart is cleared and order is placed.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,9 +349,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,11 +776,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F587"/>
+  <dimension ref="A1:F602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -833,7 +893,12 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -843,7 +908,12 @@
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -853,7 +923,12 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
@@ -863,200 +938,330 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="8"/>
+    <row r="25" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
+    <row r="26" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
+    <row r="30" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
       <c r="E48" s="8"/>
     </row>
@@ -3216,9 +3421,69 @@
       <c r="C587" s="8"/>
       <c r="E587" s="8"/>
     </row>
+    <row r="588" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C588" s="8"/>
+      <c r="E588" s="8"/>
+    </row>
+    <row r="589" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C589" s="8"/>
+      <c r="E589" s="8"/>
+    </row>
+    <row r="590" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C590" s="8"/>
+      <c r="E590" s="8"/>
+    </row>
+    <row r="591" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C591" s="8"/>
+      <c r="E591" s="8"/>
+    </row>
+    <row r="592" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C592" s="8"/>
+      <c r="E592" s="8"/>
+    </row>
+    <row r="593" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C593" s="8"/>
+      <c r="E593" s="8"/>
+    </row>
+    <row r="594" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C594" s="8"/>
+      <c r="E594" s="8"/>
+    </row>
+    <row r="595" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C595" s="8"/>
+      <c r="E595" s="8"/>
+    </row>
+    <row r="596" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C596" s="8"/>
+      <c r="E596" s="8"/>
+    </row>
+    <row r="597" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C597" s="8"/>
+      <c r="E597" s="8"/>
+    </row>
+    <row r="598" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C598" s="8"/>
+      <c r="E598" s="8"/>
+    </row>
+    <row r="599" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C599" s="8"/>
+      <c r="E599" s="8"/>
+    </row>
+    <row r="600" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C600" s="8"/>
+      <c r="E600" s="8"/>
+    </row>
+    <row r="601" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C601" s="8"/>
+      <c r="E601" s="8"/>
+    </row>
+    <row r="602" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C602" s="8"/>
+      <c r="E602" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C587 E2:E587">
+  <conditionalFormatting sqref="C2:C602 E2:E602">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3226,7 +3491,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D587 F2:F587">
+  <conditionalFormatting sqref="D2:D602 F2:F602">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3235,7 +3500,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C587 E2:E587" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C602 E2:E602" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\Documents\SWEN261\team-project-2225-swen-261-01-8h-8ball\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEC7CBC-7E7B-4C2B-82A8-9F4B3F41F31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5BDF4-27C5-4FC1-AA29-D43F7F2207F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Instructions</t>
   </si>
@@ -84,163 +84,169 @@
     <t>2225-swen-261-01-8h-8ball</t>
   </si>
   <si>
-    <t>As a buyer I want to see all prepackaged tea/coffee options so I can choose the blend I like best</t>
-  </si>
-  <si>
     <t>Given that I am on the product list page when I click on one of the options then I can see more information about it.</t>
   </si>
   <si>
-    <t>As a buyer I want to browse a list of products so that I can choose what to purchase</t>
-  </si>
-  <si>
     <t>Given there are products in the inventory when I select to browse all products then I am taken to a list of all the products</t>
   </si>
   <si>
-    <t>As an owner I want to view a list of customer names, addresses, and orders so that I can fulfill shipments</t>
-  </si>
-  <si>
     <t>Given an order has been placed when I check for orders then I should see all unfulfilled orders until I have designated them shipped</t>
   </si>
   <si>
-    <t>As a buyer I want to add my purchase to a single cart so I can have all my packages shipped to one location</t>
-  </si>
-  <si>
     <t>Given I want to purchase a product when I click the add to cart button then I expect to have it saved to my cart</t>
   </si>
   <si>
-    <t>As an Owner I want to be able to remove products from the e-store so I can eliminate unpopular blends</t>
-  </si>
-  <si>
     <t>Given a product exists when a product is deleted then the product will be removed from the site</t>
   </si>
   <si>
-    <t>As an Owner I want to be able to modify existing products in the e-store so I can update pricing and stock.</t>
-  </si>
-  <si>
     <t>Given a product exists when a product is modified then the product should update in the system</t>
   </si>
   <si>
-    <t>As an Owner I want to be able to add new products to the e-store so I can expand the potential range of customers.</t>
-  </si>
-  <si>
     <t>Given inventory exists when create a new product then the product will be tied to the inventory</t>
   </si>
   <si>
-    <t>As a Buyer I want to input my address so I can receive the contents of a cart in the mail.</t>
-  </si>
-  <si>
-    <t>Given that I am ready to have my order shipped when I enter my address then I expect to have it delivered sometime in the future</t>
-  </si>
-  <si>
-    <t>As an Owner I want to be able to add new Admins to the e-store so I can delegate who can access the inventory.</t>
-  </si>
-  <si>
     <t>Given a user account has been created when I add that account to the list of admis then the user account will be able to manage inventory</t>
   </si>
   <si>
-    <t>As a Buyer I want to have my package covered in gift wrap so it can be shipped as a gift.</t>
-  </si>
-  <si>
     <t>Given I have my package in the checkout when I select the gift option then I will be taken to choose wrapping</t>
   </si>
   <si>
-    <t>As a Buyer I want to add a custom picture to the packing so it can feel special and stand out.</t>
-  </si>
-  <si>
     <t>Given I have selected the gift option when I upload my own photo then my photo will be applied to the packaging</t>
   </si>
   <si>
-    <t>As a Buyer I want to add a personalized card with my order so I can convey my intentions to the recipient.</t>
-  </si>
-  <si>
     <t>Given I have a package in my checkout when I click the gift option then I will be directed to write a message</t>
   </si>
   <si>
-    <t>As a Buyer I want to see the option to make a custom blend so I can mix tea leaves or coffee grounds to create a personalized package.</t>
-  </si>
-  <si>
     <t>Given that I want to create a custom blend when I click the custom blend option then I expect to be able to see the different ingredients I can blend together</t>
   </si>
   <si>
-    <t>As a Buyer I want to add my packages to multiple carts so I can have certain orders shipped to different locations.</t>
-  </si>
-  <si>
     <t>Given I want to send packages to multiple addresses when I click the add to cart button then I expect to be given the option to select which cart to add to</t>
   </si>
   <si>
-    <t>As an Owner I want to be able to modify the privileges of an existing Admin in the e-store so I can control their capabilities.</t>
-  </si>
-  <si>
     <t>Given an admin account exists when I change the permissions for that user then that user will have modified abilities within the store</t>
   </si>
   <si>
-    <t>As an Owner I want to be able to remove Admins from the e-store so I can decrease the workforce.</t>
-  </si>
-  <si>
-    <t>Given there exists another admin on the website when I remove them from the admin list then they no longer have admin rights</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>AC</t>
   </si>
   <si>
-    <t>As a User I want to Login with my username and password so that I can see my customized store experience.</t>
-  </si>
-  <si>
-    <t>**Given** A user exists **when** I input the correct username and passwords **then** I should be redirected to the home page.</t>
-  </si>
-  <si>
-    <t>**Given** I am not logged in **when** I attempt to go to any page besides register/login **then** I should be redirected to the home page.</t>
-  </si>
-  <si>
-    <t>**Given** A user does not have my email **when** I register **then** it should create a new User in the API.</t>
-  </si>
-  <si>
-    <t>**Given** I am logged in **when** I go to login or register **then** I should be sent to home.</t>
-  </si>
-  <si>
-    <t>As a Manager I want to manage ingredients so that I can update inventory as it changes and ingredients are depleted.</t>
-  </si>
-  <si>
-    <t>**Given** I am an admin **when** I log in **then** I will see a list of ingredients.</t>
-  </si>
-  <si>
-    <t>**Given** an ingredient exists **when** I click on the ingredient **then** I will see the ingredients details.</t>
-  </si>
-  <si>
-    <t>**Given** an ingredient exists **when** I click on add stock **then** the given amount will be added to the inventory.</t>
-  </si>
-  <si>
-    <t>**Given** I am in ingredient details **when** I click update **then** the API should update.</t>
-  </si>
-  <si>
-    <t>**Given** I am in ingredient details **when** I click delete **then** the API should delete the current ingredient.</t>
-  </si>
-  <si>
-    <t>**Given** a user account is an admin **when** I revoke admin status **then** the user account will be no longer be an admin.</t>
-  </si>
-  <si>
-    <t>As a User I want to modify my profile so that I can keep my information up to date.</t>
-  </si>
-  <si>
-    <t>**Given** I have created an account **when** I click on User Settings **then** I should see a screen where all my information appears.</t>
-  </si>
-  <si>
-    <t>**Given** I am in the user settings page **when** I modify my information and click save **then** my information should be updated.</t>
-  </si>
-  <si>
-    <t>As a Buyer I want to checkout my cart so that I can pay for and receive my blends.</t>
-  </si>
-  <si>
-    <t>**Given** that I have a cart of products **when** I click checkout **then** I am taken to a checkout screen to confirm my order.</t>
-  </si>
-  <si>
-    <t>**Given** that I am in the checkout screen **when** I select my payment method **then** That payment method will be used for this order.</t>
-  </si>
-  <si>
-    <t>**Given** I am in the checkout **when** I click purchase **then** my cart is cleared and order is placed.</t>
+    <t>As a buyer I want to add my purchase to a single cart so I can have all my packages shipped to one location (Single Cart)</t>
+  </si>
+  <si>
+    <t>As an owner I want to view a list of customer names, addresses, and orders so that I can fulfill shipments (Customer Orders)</t>
+  </si>
+  <si>
+    <t>As a User I want to modify my profile so that I can keep my information up to date. (Modify User)</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to remove Admins from the e-store so I can decrease the workforce. (Remove Admins)</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to add new Admins to the e-store so I can delegate who can access the inventory. (Add Admins)</t>
+  </si>
+  <si>
+    <t>As a Manager I want to manage ingredients so that I can update inventory as it changes and ingredients are depleted. (Manage Ingredients)</t>
+  </si>
+  <si>
+    <t>As a buyer I want to browse a list of products so that I can choose what to purchase (Browse Products)</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to remove products from the e-store so I can eliminate unpopular blends (Remove Products)</t>
+  </si>
+  <si>
+    <t>As a User I want to Login with my username and password so that I can see my customized store experience. (User Login/Register)</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to add new products to the e-store so I can expand the potential range of customers. (Add Products)</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to modify existing products in the e-store so I can update pricing and stock. (Modify Products)</t>
+  </si>
+  <si>
+    <t>As a buyer I want to see all prepackaged tea/coffee options so I can choose the blend I like best (Prepackaged Tea/Coffee)</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to checkout my cart so that I can pay for and receive my blends. (Checkout)</t>
+  </si>
+  <si>
+    <t>Given that I am on a products detail page when I click on a size for the product then I should see an updated price</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>Sprint 2:</t>
+  </si>
+  <si>
+    <t>Sprint 3:</t>
+  </si>
+  <si>
+    <t>Given I am an admin when I log in then I will see a list of ingredients</t>
+  </si>
+  <si>
+    <t>Given an ingredient exists when I click on the ingredient then I will see the ingredients details</t>
+  </si>
+  <si>
+    <t>Given an ingredient exists when I click on add stock then the given amount will be added to the inventory</t>
+  </si>
+  <si>
+    <t>Given I am in ingredient details when I click update then the API should update</t>
+  </si>
+  <si>
+    <t>Given I am in ingredient details when I click delete the API should delete the current ingredient</t>
+  </si>
+  <si>
+    <t>Given a user exists when I input the correct username and passwords then I should be redirected to the home page</t>
+  </si>
+  <si>
+    <t>Given I am not logged in when I attempt to go to any page besides register/login the I should be redirected to the home page</t>
+  </si>
+  <si>
+    <t>Given a user does not have my emial when I register then it should created a new User in the API</t>
+  </si>
+  <si>
+    <t>Given I am logged in when I go to login or register then I should be sent to home</t>
+  </si>
+  <si>
+    <t>Given I have created an account when I click on User Settings then I should see a screen where all my information appears</t>
+  </si>
+  <si>
+    <t>Given I am in the user settings page when I modify my information and click save then my information should be updated</t>
+  </si>
+  <si>
+    <t>Given that I have a cart of products when I click checkout then I am taken to a checkout screen to confirm my order</t>
+  </si>
+  <si>
+    <t>Given that I am in the checkout screen when I select my payment method then that payment mehtod will be used for this order</t>
+  </si>
+  <si>
+    <t>Given I am in checkout when I click purchase then my card is cleard and order is placed</t>
+  </si>
+  <si>
+    <t>Given I am an admin when I click on admin accounts then I should see a list of admins</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to have my package covered in gift wrap so it can be shipped as a gift. (Gift Wrapping)</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add a custom picture to the packing so it can feel special and stand out. (Package Picture)</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add a personalized card with my order so I can convey my intentions to the recipient. (Personalized Card)</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to see the option to make a custom blend so I can mix tea leaves or coffee grounds to create a personalized package. (Custom Blend)</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add my packages to multiple carts so I can have certain orders shipped to different locations. (Multiple Carts)</t>
+  </si>
+  <si>
+    <t>As an Owner I want to be able to modify the privileges of an existing Admin in the e-store so I can control their capabilities. (Modify Admin Priviledges)</t>
+  </si>
+  <si>
+    <t>Given a user account is an admin when I revoke admin status then the user account will no longer be admin</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -317,11 +323,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -352,6 +369,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,11 +805,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F602"/>
+  <dimension ref="A1:F606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -814,422 +843,435 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
+    <row r="7" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
+      <c r="A9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>53</v>
+    <row r="21" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>64</v>
+    <row r="25" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>65</v>
+    <row r="26" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="8"/>
+    <row r="28" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="30" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
+    <row r="31" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="B32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
+    <row r="33" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
+    <row r="35" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
+    <row r="36" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>48</v>
+    <row r="37" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="C39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
     </row>
@@ -3481,9 +3523,25 @@
       <c r="C602" s="8"/>
       <c r="E602" s="8"/>
     </row>
+    <row r="603" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C603" s="8"/>
+      <c r="E603" s="8"/>
+    </row>
+    <row r="604" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C604" s="8"/>
+      <c r="E604" s="8"/>
+    </row>
+    <row r="605" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C605" s="8"/>
+      <c r="E605" s="8"/>
+    </row>
+    <row r="606" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C606" s="8"/>
+      <c r="E606" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C602 E2:E602">
+  <conditionalFormatting sqref="C3:C606 E3:E606">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -3491,16 +3549,16 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D602 F2:F602">
+  <conditionalFormatting sqref="D3:D606 F3:F606">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>AND(ISBLANK(D2),C2="Pass")</formula>
+      <formula>AND(ISBLANK(D3),C3="Pass")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>AND(ISBLANK(D2),C2="Fail")</formula>
+      <formula>AND(ISBLANK(D3),C3="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C602 E2:E602" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E606 C3:C606" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\Documents\SWEN261\team-project-2225-swen-261-01-8h-8ball\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5BDF4-27C5-4FC1-AA29-D43F7F2207F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E98596-DC81-49D9-BE37-9B61E12A2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Instructions</t>
   </si>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -369,9 +369,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,9 +804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B44" sqref="B44"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -888,7 +885,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -921,30 +918,30 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -956,10 +953,10 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -971,10 +968,10 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -986,10 +983,10 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1117,10 +1114,10 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1185,10 +1182,10 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1204,11 +1201,16 @@
       <c r="B33" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="11"/>
@@ -1216,50 +1218,50 @@
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="8"/>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>User Story</t>
   </si>
@@ -66,21 +66,27 @@
 </t>
   </si>
   <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Given that I am on a products detail page when I click on a size for the product then I should see an updated price</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>Given that I am on a products detail page when I click on a size for the product then I should see an updated price</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>As a buyer I want to browse a list of products so that I can choose what to purchase (Browse Products)</t>
   </si>
   <si>
     <t>Given there are products in the inventory when I select to browse all products then I am taken to a list of all the products</t>
   </si>
   <si>
+    <t>ZR</t>
+  </si>
+  <si>
     <t>As an owner I want to view a list of customer names, addresses, and orders so that I can fulfill shipments (Customer Orders)</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
   </si>
   <si>
     <t>Given a product exists when a product is deleted then the product will be removed from the site</t>
-  </si>
-  <si>
-    <t>ZR</t>
   </si>
   <si>
     <t>As an Owner I want to be able to modify existing products in the e-store so I can update pricing and stock. (Modify Products)</t>
@@ -702,10 +705,10 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -714,18 +717,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -871,119 +874,119 @@
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A13" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A14" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="70.5" customFormat="1" s="1">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="70.5" customFormat="1" s="1">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -991,13 +994,13 @@
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -1005,13 +1008,13 @@
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1019,13 +1022,13 @@
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
@@ -1033,29 +1036,29 @@
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
@@ -1063,13 +1066,13 @@
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
@@ -1077,13 +1080,13 @@
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
@@ -1091,45 +1094,45 @@
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -1137,29 +1140,29 @@
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="45" customFormat="1" s="1">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -1167,13 +1170,13 @@
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A30" s="6"/>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -1181,29 +1184,29 @@
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
@@ -1211,20 +1214,20 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
@@ -1234,10 +1237,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A35" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -1246,10 +1249,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A36" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -1258,10 +1261,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A37" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -1270,10 +1273,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="70.5" customFormat="1" s="1">
       <c r="A38" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1282,10 +1285,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -1294,10 +1297,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="70.5" customFormat="1" s="1">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phill\Documents\SWEN261\team-project-2225-swen-261-01-8h-8ball\etc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7459BE-AAFD-4096-BA82-E107C69AC6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Instructions"/>
+    <sheet r:id="rId2" sheetId="2" name="Test Plan"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>User Story</t>
   </si>
@@ -72,7 +66,7 @@
 </t>
   </si>
   <si>
-    <t>JP</t>
+    <t>JP; March 17th;</t>
   </si>
   <si>
     <t>Given that I am on a products detail page when I click on a size for the product then I should see an updated price</t>
@@ -81,42 +75,54 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>JP; March 17th; blends sometimes have one less decimal for price than they should</t>
+  </si>
+  <si>
+    <t>As a buyer I want to browse a list of products so that I can choose what to purchase (Browse Products)</t>
+  </si>
+  <si>
+    <t>Given there are products in the inventory when I select to browse all products then I am taken to a list of all the products</t>
+  </si>
+  <si>
+    <t>ZR; March 16th; Works</t>
+  </si>
+  <si>
+    <t>As an owner I want to view a list of customer names, addresses, and orders so that I can fulfill shipments (Customer Orders)</t>
+  </si>
+  <si>
+    <t>Given an order has been placed when I check for orders then I should see all unfulfilled orders until I have designated them shipped</t>
+  </si>
+  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>As a buyer I want to browse a list of products so that I can choose what to purchase (Browse Products)</t>
-  </si>
-  <si>
-    <t>Given there are products in the inventory when I select to browse all products then I am taken to a list of all the products</t>
-  </si>
-  <si>
-    <t>ZR</t>
-  </si>
-  <si>
-    <t>As an owner I want to view a list of customer names, addresses, and orders so that I can fulfill shipments (Customer Orders)</t>
-  </si>
-  <si>
-    <t>Given an order has been placed when I check for orders then I should see all unfulfilled orders until I have designated them shipped</t>
-  </si>
-  <si>
     <t>As a buyer I want to add my purchase to a single cart so I can have all my packages shipped to one location (Single Cart)</t>
   </si>
   <si>
     <t>Given I want to purchase a product when I click the add to cart button then I expect to have it saved to my cart</t>
   </si>
   <si>
+    <t>ZR; March 17th; Everything works, but maybe cart should be displayed within a page rather than get its own.</t>
+  </si>
+  <si>
     <t>As an Owner I want to be able to remove products from the e-store so I can eliminate unpopular blends (Remove Products)</t>
   </si>
   <si>
     <t>Given a product exists when a product is deleted then the product will be removed from the site</t>
   </si>
   <si>
+    <t>ZR; March 15th;</t>
+  </si>
+  <si>
     <t>As an Owner I want to be able to modify existing products in the e-store so I can update pricing and stock. (Modify Products)</t>
   </si>
   <si>
     <t>Given a product exists when a product is modified then the product should update in the system</t>
   </si>
   <si>
+    <t>ZR; March 15th; I think the product management could be done in one page, which would make the admin's job easier. It works for now, but we should probably change it later.</t>
+  </si>
+  <si>
     <t>As an Owner I want to be able to add new products to the e-store so I can expand the potential range of customers. (Add Products)</t>
   </si>
   <si>
@@ -217,6 +223,12 @@
   </si>
   <si>
     <t>Given that I want to create a custom blend when I click the custom blend option then I expect to be able to see the different ingredients I can blend together</t>
+  </si>
+  <si>
+    <t>As a Buyer I want to add my packages to multiple carts so I can have certain orders shipped to different locations. (Multiple Carts)</t>
+  </si>
+  <si>
+    <t>Given I want to send packages to multiple addresses when I click the add to cart button then I expect to be given the option to select which cart to add to</t>
   </si>
   <si>
     <t>As an Owner I want to be able to modify the privileges of an existing Admin in the e-store so I can control their capabilities. (Modify Admin Priviledges)</t>
@@ -247,17 +259,12 @@
   <si>
     <t>fill in when doing cross-team testing</t>
   </si>
-  <si>
-    <t>Given I want to send products to multiple addresses when I click the checkout button then I expect to be given the option to select which address to send an item to</t>
-  </si>
-  <si>
-    <t>As a Buyer I want to assign different addresses to items in my cart so I can have certain items shipped to different locations. (Multiple Addresses)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,89 +356,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="16">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -442,10 +422,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -483,71 +463,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,7 +555,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -598,11 +578,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -611,13 +591,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -627,7 +607,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -636,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -645,7 +625,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -653,10 +633,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -721,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -729,35 +709,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="15" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="106.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>67</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -766,28 +749,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="topRight" topLeftCell="C1" ySplit="0" xSplit="2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="60.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -817,7 +799,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -825,2731 +807,5047 @@
         <v>7</v>
       </c>
       <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="F6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A13" s="9" t="s">
         <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
+      <c r="F13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
+      <c r="F14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
+      <c r="F15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="70.5" customFormat="1" s="1">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="70.5" customFormat="1" s="1">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
+      <c r="F20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
+      <c r="F24" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
+      <c r="F25" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>48</v>
+      <c r="F27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="45" customFormat="1" s="1">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A30" s="6"/>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
+      <c r="D30" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
-        <v>52</v>
+      <c r="F30" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
-        <v>55</v>
+      <c r="F32" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.5" customFormat="1" s="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21" customFormat="1" s="1">
+      <c r="A34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>58</v>
+      <c r="F34" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>60</v>
+      <c r="F35" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>62</v>
+      <c r="F36" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>64</v>
+      <c r="F37" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="70.5" customFormat="1" s="1">
+      <c r="A38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>73</v>
+      <c r="F38" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="57.75" customFormat="1" s="1">
+      <c r="A39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>66</v>
+      <c r="F39" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="70.5" customFormat="1" s="1">
+      <c r="A40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
       <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="5"/>
-    </row>
-    <row r="103" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="5"/>
-    </row>
-    <row r="104" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="5"/>
-    </row>
-    <row r="112" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="5"/>
-    </row>
-    <row r="113" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="5"/>
-    </row>
-    <row r="114" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="5"/>
-    </row>
-    <row r="115" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="5"/>
-    </row>
-    <row r="116" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="5"/>
-    </row>
-    <row r="117" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="5"/>
-    </row>
-    <row r="118" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="5"/>
-    </row>
-    <row r="119" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
       <c r="E122" s="5"/>
-    </row>
-    <row r="123" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="5"/>
-    </row>
-    <row r="124" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="5"/>
-    </row>
-    <row r="125" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="5"/>
-    </row>
-    <row r="127" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="5"/>
-    </row>
-    <row r="130" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="5"/>
-    </row>
-    <row r="131" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="5"/>
-    </row>
-    <row r="132" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="5"/>
-    </row>
-    <row r="133" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
       <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="5"/>
-    </row>
-    <row r="138" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="5"/>
-    </row>
-    <row r="139" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
       <c r="E139" s="5"/>
-    </row>
-    <row r="140" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
       <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="5"/>
-    </row>
-    <row r="141" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="5"/>
-    </row>
-    <row r="142" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
       <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
       <c r="E142" s="5"/>
-    </row>
-    <row r="143" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
       <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="5"/>
-    </row>
-    <row r="144" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="5"/>
-    </row>
-    <row r="145" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="5"/>
-    </row>
-    <row r="146" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
       <c r="E147" s="5"/>
-    </row>
-    <row r="148" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="5"/>
-    </row>
-    <row r="149" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="5"/>
-    </row>
-    <row r="150" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
       <c r="E150" s="5"/>
-    </row>
-    <row r="151" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="5"/>
-    </row>
-    <row r="152" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
       <c r="E152" s="5"/>
-    </row>
-    <row r="153" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="5"/>
-    </row>
-    <row r="154" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="5"/>
-    </row>
-    <row r="155" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
       <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
       <c r="E156" s="5"/>
-    </row>
-    <row r="157" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
       <c r="E157" s="5"/>
-    </row>
-    <row r="158" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
       <c r="E158" s="5"/>
-    </row>
-    <row r="159" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
       <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
       <c r="E161" s="5"/>
-    </row>
-    <row r="162" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
       <c r="E162" s="5"/>
-    </row>
-    <row r="163" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="5"/>
-    </row>
-    <row r="164" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
       <c r="E164" s="5"/>
-    </row>
-    <row r="165" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="5"/>
-    </row>
-    <row r="166" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
       <c r="E166" s="5"/>
-    </row>
-    <row r="167" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="5"/>
-    </row>
-    <row r="168" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
       <c r="E168" s="5"/>
-    </row>
-    <row r="169" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
       <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
       <c r="E169" s="5"/>
-    </row>
-    <row r="170" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
       <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
       <c r="E170" s="5"/>
-    </row>
-    <row r="171" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
       <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
       <c r="E171" s="5"/>
-    </row>
-    <row r="172" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
       <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
       <c r="E172" s="5"/>
-    </row>
-    <row r="173" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
       <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="5"/>
-    </row>
-    <row r="174" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
       <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
       <c r="E174" s="5"/>
-    </row>
-    <row r="175" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
       <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
       <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
       <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
       <c r="E176" s="5"/>
-    </row>
-    <row r="177" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
       <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
       <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
       <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
       <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="5"/>
-    </row>
-    <row r="180" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
       <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
       <c r="E180" s="5"/>
-    </row>
-    <row r="181" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
       <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
       <c r="E181" s="5"/>
-    </row>
-    <row r="182" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
       <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
       <c r="E182" s="5"/>
-    </row>
-    <row r="183" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
       <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="5"/>
-    </row>
-    <row r="184" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
       <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="5"/>
-    </row>
-    <row r="185" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
       <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="5"/>
-    </row>
-    <row r="186" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
       <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
       <c r="E186" s="5"/>
-    </row>
-    <row r="187" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
       <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
       <c r="E187" s="5"/>
-    </row>
-    <row r="188" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="5"/>
-    </row>
-    <row r="189" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
       <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="5"/>
-    </row>
-    <row r="190" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
       <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="5"/>
-    </row>
-    <row r="191" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
       <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="5"/>
-    </row>
-    <row r="192" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
       <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
       <c r="E192" s="5"/>
-    </row>
-    <row r="193" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
       <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
       <c r="E193" s="5"/>
-    </row>
-    <row r="194" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
       <c r="C194" s="5"/>
+      <c r="D194" s="6"/>
       <c r="E194" s="5"/>
-    </row>
-    <row r="195" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
       <c r="C195" s="5"/>
+      <c r="D195" s="6"/>
       <c r="E195" s="5"/>
-    </row>
-    <row r="196" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
       <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
       <c r="E196" s="5"/>
-    </row>
-    <row r="197" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F196" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
       <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
       <c r="E197" s="5"/>
-    </row>
-    <row r="198" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F197" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
       <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
       <c r="E198" s="5"/>
-    </row>
-    <row r="199" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
       <c r="C199" s="5"/>
+      <c r="D199" s="6"/>
       <c r="E199" s="5"/>
-    </row>
-    <row r="200" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
       <c r="C200" s="5"/>
+      <c r="D200" s="6"/>
       <c r="E200" s="5"/>
-    </row>
-    <row r="201" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A201" s="6"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="5"/>
+      <c r="D201" s="6"/>
       <c r="E201" s="5"/>
-    </row>
-    <row r="202" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
       <c r="E202" s="5"/>
-    </row>
-    <row r="203" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A203" s="6"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
       <c r="E203" s="5"/>
-    </row>
-    <row r="204" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
       <c r="E204" s="5"/>
-    </row>
-    <row r="205" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A205" s="6"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="5"/>
+      <c r="D205" s="6"/>
       <c r="E205" s="5"/>
-    </row>
-    <row r="206" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F205" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
       <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
       <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F206" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A207" s="6"/>
+      <c r="B207" s="6"/>
       <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
       <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
       <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
       <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F208" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A209" s="6"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
       <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F209" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
       <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A211" s="6"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
       <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F211" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
       <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
       <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F212" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A213" s="6"/>
+      <c r="B213" s="6"/>
       <c r="C213" s="5"/>
+      <c r="D213" s="6"/>
       <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F213" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
       <c r="C214" s="5"/>
+      <c r="D214" s="6"/>
       <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F214" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
       <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
       <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F215" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
       <c r="C216" s="5"/>
+      <c r="D216" s="6"/>
       <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
       <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
       <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F217" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
       <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
       <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F218" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
       <c r="C219" s="5"/>
+      <c r="D219" s="6"/>
       <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
       <c r="C220" s="5"/>
+      <c r="D220" s="6"/>
       <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F220" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="5"/>
+      <c r="D221" s="6"/>
       <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F221" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
       <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
       <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F222" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
       <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
       <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F223" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
       <c r="C224" s="5"/>
+      <c r="D224" s="6"/>
       <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F224" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
       <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
       <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F225" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
       <c r="C226" s="5"/>
+      <c r="D226" s="6"/>
       <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F226" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
       <c r="C227" s="5"/>
+      <c r="D227" s="6"/>
       <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F227" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
       <c r="C228" s="5"/>
+      <c r="D228" s="6"/>
       <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F228" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
       <c r="C229" s="5"/>
+      <c r="D229" s="6"/>
       <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F229" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
       <c r="C230" s="5"/>
+      <c r="D230" s="6"/>
       <c r="E230" s="5"/>
-    </row>
-    <row r="231" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F230" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
       <c r="C231" s="5"/>
+      <c r="D231" s="6"/>
       <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
       <c r="C232" s="5"/>
+      <c r="D232" s="6"/>
       <c r="E232" s="5"/>
-    </row>
-    <row r="233" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F232" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A233" s="6"/>
+      <c r="B233" s="6"/>
       <c r="C233" s="5"/>
+      <c r="D233" s="6"/>
       <c r="E233" s="5"/>
-    </row>
-    <row r="234" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F233" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
       <c r="C234" s="5"/>
+      <c r="D234" s="6"/>
       <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F234" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A235" s="6"/>
+      <c r="B235" s="6"/>
       <c r="C235" s="5"/>
+      <c r="D235" s="6"/>
       <c r="E235" s="5"/>
-    </row>
-    <row r="236" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F235" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
       <c r="C236" s="5"/>
+      <c r="D236" s="6"/>
       <c r="E236" s="5"/>
-    </row>
-    <row r="237" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F236" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A237" s="6"/>
+      <c r="B237" s="6"/>
       <c r="C237" s="5"/>
+      <c r="D237" s="6"/>
       <c r="E237" s="5"/>
-    </row>
-    <row r="238" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
       <c r="C238" s="5"/>
+      <c r="D238" s="6"/>
       <c r="E238" s="5"/>
-    </row>
-    <row r="239" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F238" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
       <c r="C239" s="5"/>
+      <c r="D239" s="6"/>
       <c r="E239" s="5"/>
-    </row>
-    <row r="240" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F239" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A240" s="6"/>
+      <c r="B240" s="6"/>
       <c r="C240" s="5"/>
+      <c r="D240" s="6"/>
       <c r="E240" s="5"/>
-    </row>
-    <row r="241" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F240" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A241" s="6"/>
+      <c r="B241" s="6"/>
       <c r="C241" s="5"/>
+      <c r="D241" s="6"/>
       <c r="E241" s="5"/>
-    </row>
-    <row r="242" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F241" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A242" s="6"/>
+      <c r="B242" s="6"/>
       <c r="C242" s="5"/>
+      <c r="D242" s="6"/>
       <c r="E242" s="5"/>
-    </row>
-    <row r="243" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F242" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A243" s="6"/>
+      <c r="B243" s="6"/>
       <c r="C243" s="5"/>
+      <c r="D243" s="6"/>
       <c r="E243" s="5"/>
-    </row>
-    <row r="244" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F243" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A244" s="6"/>
+      <c r="B244" s="6"/>
       <c r="C244" s="5"/>
+      <c r="D244" s="6"/>
       <c r="E244" s="5"/>
-    </row>
-    <row r="245" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F244" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A245" s="6"/>
+      <c r="B245" s="6"/>
       <c r="C245" s="5"/>
+      <c r="D245" s="6"/>
       <c r="E245" s="5"/>
-    </row>
-    <row r="246" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F245" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A246" s="6"/>
+      <c r="B246" s="6"/>
       <c r="C246" s="5"/>
+      <c r="D246" s="6"/>
       <c r="E246" s="5"/>
-    </row>
-    <row r="247" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F246" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A247" s="6"/>
+      <c r="B247" s="6"/>
       <c r="C247" s="5"/>
+      <c r="D247" s="6"/>
       <c r="E247" s="5"/>
-    </row>
-    <row r="248" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F247" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A248" s="6"/>
+      <c r="B248" s="6"/>
       <c r="C248" s="5"/>
+      <c r="D248" s="6"/>
       <c r="E248" s="5"/>
-    </row>
-    <row r="249" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F248" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A249" s="6"/>
+      <c r="B249" s="6"/>
       <c r="C249" s="5"/>
+      <c r="D249" s="6"/>
       <c r="E249" s="5"/>
-    </row>
-    <row r="250" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F249" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A250" s="6"/>
+      <c r="B250" s="6"/>
       <c r="C250" s="5"/>
+      <c r="D250" s="6"/>
       <c r="E250" s="5"/>
-    </row>
-    <row r="251" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F250" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A251" s="6"/>
+      <c r="B251" s="6"/>
       <c r="C251" s="5"/>
+      <c r="D251" s="6"/>
       <c r="E251" s="5"/>
-    </row>
-    <row r="252" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F251" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
       <c r="C252" s="5"/>
+      <c r="D252" s="6"/>
       <c r="E252" s="5"/>
-    </row>
-    <row r="253" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F252" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A253" s="6"/>
+      <c r="B253" s="6"/>
       <c r="C253" s="5"/>
+      <c r="D253" s="6"/>
       <c r="E253" s="5"/>
-    </row>
-    <row r="254" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F253" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
       <c r="C254" s="5"/>
+      <c r="D254" s="6"/>
       <c r="E254" s="5"/>
-    </row>
-    <row r="255" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F254" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A255" s="6"/>
+      <c r="B255" s="6"/>
       <c r="C255" s="5"/>
+      <c r="D255" s="6"/>
       <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F255" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
       <c r="C256" s="5"/>
+      <c r="D256" s="6"/>
       <c r="E256" s="5"/>
-    </row>
-    <row r="257" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F256" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A257" s="6"/>
+      <c r="B257" s="6"/>
       <c r="C257" s="5"/>
+      <c r="D257" s="6"/>
       <c r="E257" s="5"/>
-    </row>
-    <row r="258" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F257" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A258" s="6"/>
+      <c r="B258" s="6"/>
       <c r="C258" s="5"/>
+      <c r="D258" s="6"/>
       <c r="E258" s="5"/>
-    </row>
-    <row r="259" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F258" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A259" s="6"/>
+      <c r="B259" s="6"/>
       <c r="C259" s="5"/>
+      <c r="D259" s="6"/>
       <c r="E259" s="5"/>
-    </row>
-    <row r="260" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F259" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A260" s="6"/>
+      <c r="B260" s="6"/>
       <c r="C260" s="5"/>
+      <c r="D260" s="6"/>
       <c r="E260" s="5"/>
-    </row>
-    <row r="261" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F260" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A261" s="6"/>
+      <c r="B261" s="6"/>
       <c r="C261" s="5"/>
+      <c r="D261" s="6"/>
       <c r="E261" s="5"/>
-    </row>
-    <row r="262" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F261" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
       <c r="C262" s="5"/>
+      <c r="D262" s="6"/>
       <c r="E262" s="5"/>
-    </row>
-    <row r="263" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F262" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A263" s="6"/>
+      <c r="B263" s="6"/>
       <c r="C263" s="5"/>
+      <c r="D263" s="6"/>
       <c r="E263" s="5"/>
-    </row>
-    <row r="264" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F263" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
       <c r="C264" s="5"/>
+      <c r="D264" s="6"/>
       <c r="E264" s="5"/>
-    </row>
-    <row r="265" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F264" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A265" s="6"/>
+      <c r="B265" s="6"/>
       <c r="C265" s="5"/>
+      <c r="D265" s="6"/>
       <c r="E265" s="5"/>
-    </row>
-    <row r="266" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F265" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
       <c r="C266" s="5"/>
+      <c r="D266" s="6"/>
       <c r="E266" s="5"/>
-    </row>
-    <row r="267" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F266" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A267" s="6"/>
+      <c r="B267" s="6"/>
       <c r="C267" s="5"/>
+      <c r="D267" s="6"/>
       <c r="E267" s="5"/>
-    </row>
-    <row r="268" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F267" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A268" s="6"/>
+      <c r="B268" s="6"/>
       <c r="C268" s="5"/>
+      <c r="D268" s="6"/>
       <c r="E268" s="5"/>
-    </row>
-    <row r="269" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F268" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A269" s="6"/>
+      <c r="B269" s="6"/>
       <c r="C269" s="5"/>
+      <c r="D269" s="6"/>
       <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F269" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A270" s="6"/>
+      <c r="B270" s="6"/>
       <c r="C270" s="5"/>
+      <c r="D270" s="6"/>
       <c r="E270" s="5"/>
-    </row>
-    <row r="271" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F270" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A271" s="6"/>
+      <c r="B271" s="6"/>
       <c r="C271" s="5"/>
+      <c r="D271" s="6"/>
       <c r="E271" s="5"/>
-    </row>
-    <row r="272" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F271" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
       <c r="C272" s="5"/>
+      <c r="D272" s="6"/>
       <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F272" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A273" s="6"/>
+      <c r="B273" s="6"/>
       <c r="C273" s="5"/>
+      <c r="D273" s="6"/>
       <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F273" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A274" s="6"/>
+      <c r="B274" s="6"/>
       <c r="C274" s="5"/>
+      <c r="D274" s="6"/>
       <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F274" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A275" s="6"/>
+      <c r="B275" s="6"/>
       <c r="C275" s="5"/>
+      <c r="D275" s="6"/>
       <c r="E275" s="5"/>
-    </row>
-    <row r="276" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F275" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
       <c r="C276" s="5"/>
+      <c r="D276" s="6"/>
       <c r="E276" s="5"/>
-    </row>
-    <row r="277" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F276" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6"/>
       <c r="C277" s="5"/>
+      <c r="D277" s="6"/>
       <c r="E277" s="5"/>
-    </row>
-    <row r="278" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F277" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6"/>
       <c r="C278" s="5"/>
+      <c r="D278" s="6"/>
       <c r="E278" s="5"/>
-    </row>
-    <row r="279" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F278" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
       <c r="C279" s="5"/>
+      <c r="D279" s="6"/>
       <c r="E279" s="5"/>
-    </row>
-    <row r="280" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F279" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
       <c r="C280" s="5"/>
+      <c r="D280" s="6"/>
       <c r="E280" s="5"/>
-    </row>
-    <row r="281" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F280" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A281" s="6"/>
+      <c r="B281" s="6"/>
       <c r="C281" s="5"/>
+      <c r="D281" s="6"/>
       <c r="E281" s="5"/>
-    </row>
-    <row r="282" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F281" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
       <c r="C282" s="5"/>
+      <c r="D282" s="6"/>
       <c r="E282" s="5"/>
-    </row>
-    <row r="283" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F282" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A283" s="6"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="5"/>
+      <c r="D283" s="6"/>
       <c r="E283" s="5"/>
-    </row>
-    <row r="284" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F283" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A284" s="6"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="5"/>
+      <c r="D284" s="6"/>
       <c r="E284" s="5"/>
-    </row>
-    <row r="285" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F284" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A285" s="6"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="5"/>
+      <c r="D285" s="6"/>
       <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F285" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A286" s="6"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="5"/>
+      <c r="D286" s="6"/>
       <c r="E286" s="5"/>
-    </row>
-    <row r="287" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F286" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A287" s="6"/>
+      <c r="B287" s="6"/>
       <c r="C287" s="5"/>
+      <c r="D287" s="6"/>
       <c r="E287" s="5"/>
-    </row>
-    <row r="288" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F287" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A288" s="6"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="5"/>
+      <c r="D288" s="6"/>
       <c r="E288" s="5"/>
-    </row>
-    <row r="289" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F288" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A289" s="6"/>
+      <c r="B289" s="6"/>
       <c r="C289" s="5"/>
+      <c r="D289" s="6"/>
       <c r="E289" s="5"/>
-    </row>
-    <row r="290" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F289" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
       <c r="C290" s="5"/>
+      <c r="D290" s="6"/>
       <c r="E290" s="5"/>
-    </row>
-    <row r="291" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F290" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6"/>
       <c r="C291" s="5"/>
+      <c r="D291" s="6"/>
       <c r="E291" s="5"/>
-    </row>
-    <row r="292" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F291" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="5"/>
+      <c r="D292" s="6"/>
       <c r="E292" s="5"/>
-    </row>
-    <row r="293" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F292" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A293" s="6"/>
+      <c r="B293" s="6"/>
       <c r="C293" s="5"/>
+      <c r="D293" s="6"/>
       <c r="E293" s="5"/>
-    </row>
-    <row r="294" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F293" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A294" s="6"/>
+      <c r="B294" s="6"/>
       <c r="C294" s="5"/>
+      <c r="D294" s="6"/>
       <c r="E294" s="5"/>
-    </row>
-    <row r="295" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F294" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A295" s="6"/>
+      <c r="B295" s="6"/>
       <c r="C295" s="5"/>
+      <c r="D295" s="6"/>
       <c r="E295" s="5"/>
-    </row>
-    <row r="296" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F295" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A296" s="6"/>
+      <c r="B296" s="6"/>
       <c r="C296" s="5"/>
+      <c r="D296" s="6"/>
       <c r="E296" s="5"/>
-    </row>
-    <row r="297" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F296" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A297" s="6"/>
+      <c r="B297" s="6"/>
       <c r="C297" s="5"/>
+      <c r="D297" s="6"/>
       <c r="E297" s="5"/>
-    </row>
-    <row r="298" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F297" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A298" s="6"/>
+      <c r="B298" s="6"/>
       <c r="C298" s="5"/>
+      <c r="D298" s="6"/>
       <c r="E298" s="5"/>
-    </row>
-    <row r="299" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F298" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A299" s="6"/>
+      <c r="B299" s="6"/>
       <c r="C299" s="5"/>
+      <c r="D299" s="6"/>
       <c r="E299" s="5"/>
-    </row>
-    <row r="300" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F299" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A300" s="6"/>
+      <c r="B300" s="6"/>
       <c r="C300" s="5"/>
+      <c r="D300" s="6"/>
       <c r="E300" s="5"/>
-    </row>
-    <row r="301" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F300" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A301" s="6"/>
+      <c r="B301" s="6"/>
       <c r="C301" s="5"/>
+      <c r="D301" s="6"/>
       <c r="E301" s="5"/>
-    </row>
-    <row r="302" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F301" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A302" s="6"/>
+      <c r="B302" s="6"/>
       <c r="C302" s="5"/>
+      <c r="D302" s="6"/>
       <c r="E302" s="5"/>
-    </row>
-    <row r="303" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F302" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A303" s="6"/>
+      <c r="B303" s="6"/>
       <c r="C303" s="5"/>
+      <c r="D303" s="6"/>
       <c r="E303" s="5"/>
-    </row>
-    <row r="304" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F303" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A304" s="6"/>
+      <c r="B304" s="6"/>
       <c r="C304" s="5"/>
+      <c r="D304" s="6"/>
       <c r="E304" s="5"/>
-    </row>
-    <row r="305" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F304" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A305" s="6"/>
+      <c r="B305" s="6"/>
       <c r="C305" s="5"/>
+      <c r="D305" s="6"/>
       <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F305" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A306" s="6"/>
+      <c r="B306" s="6"/>
       <c r="C306" s="5"/>
+      <c r="D306" s="6"/>
       <c r="E306" s="5"/>
-    </row>
-    <row r="307" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F306" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A307" s="6"/>
+      <c r="B307" s="6"/>
       <c r="C307" s="5"/>
+      <c r="D307" s="6"/>
       <c r="E307" s="5"/>
-    </row>
-    <row r="308" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F307" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A308" s="6"/>
+      <c r="B308" s="6"/>
       <c r="C308" s="5"/>
+      <c r="D308" s="6"/>
       <c r="E308" s="5"/>
-    </row>
-    <row r="309" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F308" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A309" s="6"/>
+      <c r="B309" s="6"/>
       <c r="C309" s="5"/>
+      <c r="D309" s="6"/>
       <c r="E309" s="5"/>
-    </row>
-    <row r="310" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F309" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A310" s="6"/>
+      <c r="B310" s="6"/>
       <c r="C310" s="5"/>
+      <c r="D310" s="6"/>
       <c r="E310" s="5"/>
-    </row>
-    <row r="311" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F310" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A311" s="6"/>
+      <c r="B311" s="6"/>
       <c r="C311" s="5"/>
+      <c r="D311" s="6"/>
       <c r="E311" s="5"/>
-    </row>
-    <row r="312" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F311" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A312" s="6"/>
+      <c r="B312" s="6"/>
       <c r="C312" s="5"/>
+      <c r="D312" s="6"/>
       <c r="E312" s="5"/>
-    </row>
-    <row r="313" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F312" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A313" s="6"/>
+      <c r="B313" s="6"/>
       <c r="C313" s="5"/>
+      <c r="D313" s="6"/>
       <c r="E313" s="5"/>
-    </row>
-    <row r="314" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F313" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
       <c r="C314" s="5"/>
+      <c r="D314" s="6"/>
       <c r="E314" s="5"/>
-    </row>
-    <row r="315" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F314" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A315" s="6"/>
+      <c r="B315" s="6"/>
       <c r="C315" s="5"/>
+      <c r="D315" s="6"/>
       <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F315" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
       <c r="C316" s="5"/>
+      <c r="D316" s="6"/>
       <c r="E316" s="5"/>
-    </row>
-    <row r="317" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F316" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A317" s="6"/>
+      <c r="B317" s="6"/>
       <c r="C317" s="5"/>
+      <c r="D317" s="6"/>
       <c r="E317" s="5"/>
-    </row>
-    <row r="318" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F317" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A318" s="6"/>
+      <c r="B318" s="6"/>
       <c r="C318" s="5"/>
+      <c r="D318" s="6"/>
       <c r="E318" s="5"/>
-    </row>
-    <row r="319" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F318" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A319" s="6"/>
+      <c r="B319" s="6"/>
       <c r="C319" s="5"/>
+      <c r="D319" s="6"/>
       <c r="E319" s="5"/>
-    </row>
-    <row r="320" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F319" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A320" s="6"/>
+      <c r="B320" s="6"/>
       <c r="C320" s="5"/>
+      <c r="D320" s="6"/>
       <c r="E320" s="5"/>
-    </row>
-    <row r="321" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F320" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A321" s="6"/>
+      <c r="B321" s="6"/>
       <c r="C321" s="5"/>
+      <c r="D321" s="6"/>
       <c r="E321" s="5"/>
-    </row>
-    <row r="322" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F321" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A322" s="6"/>
+      <c r="B322" s="6"/>
       <c r="C322" s="5"/>
+      <c r="D322" s="6"/>
       <c r="E322" s="5"/>
-    </row>
-    <row r="323" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F322" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A323" s="6"/>
+      <c r="B323" s="6"/>
       <c r="C323" s="5"/>
+      <c r="D323" s="6"/>
       <c r="E323" s="5"/>
-    </row>
-    <row r="324" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F323" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A324" s="6"/>
+      <c r="B324" s="6"/>
       <c r="C324" s="5"/>
+      <c r="D324" s="6"/>
       <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F324" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A325" s="6"/>
+      <c r="B325" s="6"/>
       <c r="C325" s="5"/>
+      <c r="D325" s="6"/>
       <c r="E325" s="5"/>
-    </row>
-    <row r="326" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F325" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A326" s="6"/>
+      <c r="B326" s="6"/>
       <c r="C326" s="5"/>
+      <c r="D326" s="6"/>
       <c r="E326" s="5"/>
-    </row>
-    <row r="327" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F326" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A327" s="6"/>
+      <c r="B327" s="6"/>
       <c r="C327" s="5"/>
+      <c r="D327" s="6"/>
       <c r="E327" s="5"/>
-    </row>
-    <row r="328" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F327" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A328" s="6"/>
+      <c r="B328" s="6"/>
       <c r="C328" s="5"/>
+      <c r="D328" s="6"/>
       <c r="E328" s="5"/>
-    </row>
-    <row r="329" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F328" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A329" s="6"/>
+      <c r="B329" s="6"/>
       <c r="C329" s="5"/>
+      <c r="D329" s="6"/>
       <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F329" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A330" s="6"/>
+      <c r="B330" s="6"/>
       <c r="C330" s="5"/>
+      <c r="D330" s="6"/>
       <c r="E330" s="5"/>
-    </row>
-    <row r="331" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F330" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A331" s="6"/>
+      <c r="B331" s="6"/>
       <c r="C331" s="5"/>
+      <c r="D331" s="6"/>
       <c r="E331" s="5"/>
-    </row>
-    <row r="332" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F331" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A332" s="6"/>
+      <c r="B332" s="6"/>
       <c r="C332" s="5"/>
+      <c r="D332" s="6"/>
       <c r="E332" s="5"/>
-    </row>
-    <row r="333" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F332" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A333" s="6"/>
+      <c r="B333" s="6"/>
       <c r="C333" s="5"/>
+      <c r="D333" s="6"/>
       <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F333" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A334" s="6"/>
+      <c r="B334" s="6"/>
       <c r="C334" s="5"/>
+      <c r="D334" s="6"/>
       <c r="E334" s="5"/>
-    </row>
-    <row r="335" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F334" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A335" s="6"/>
+      <c r="B335" s="6"/>
       <c r="C335" s="5"/>
+      <c r="D335" s="6"/>
       <c r="E335" s="5"/>
-    </row>
-    <row r="336" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F335" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
       <c r="C336" s="5"/>
+      <c r="D336" s="6"/>
       <c r="E336" s="5"/>
-    </row>
-    <row r="337" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A337" s="6"/>
+      <c r="B337" s="6"/>
       <c r="C337" s="5"/>
+      <c r="D337" s="6"/>
       <c r="E337" s="5"/>
-    </row>
-    <row r="338" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F337" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A338" s="6"/>
+      <c r="B338" s="6"/>
       <c r="C338" s="5"/>
+      <c r="D338" s="6"/>
       <c r="E338" s="5"/>
-    </row>
-    <row r="339" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F338" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A339" s="6"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="5"/>
+      <c r="D339" s="6"/>
       <c r="E339" s="5"/>
-    </row>
-    <row r="340" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F339" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A340" s="6"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="5"/>
+      <c r="D340" s="6"/>
       <c r="E340" s="5"/>
-    </row>
-    <row r="341" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F340" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A341" s="6"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="5"/>
+      <c r="D341" s="6"/>
       <c r="E341" s="5"/>
-    </row>
-    <row r="342" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F341" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A342" s="6"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="5"/>
+      <c r="D342" s="6"/>
       <c r="E342" s="5"/>
-    </row>
-    <row r="343" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F342" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A343" s="6"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="5"/>
+      <c r="D343" s="6"/>
       <c r="E343" s="5"/>
-    </row>
-    <row r="344" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F343" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A344" s="6"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="5"/>
+      <c r="D344" s="6"/>
       <c r="E344" s="5"/>
-    </row>
-    <row r="345" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F344" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A345" s="6"/>
+      <c r="B345" s="6"/>
       <c r="C345" s="5"/>
+      <c r="D345" s="6"/>
       <c r="E345" s="5"/>
-    </row>
-    <row r="346" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F345" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A346" s="6"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="5"/>
+      <c r="D346" s="6"/>
       <c r="E346" s="5"/>
-    </row>
-    <row r="347" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F346" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A347" s="6"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="5"/>
+      <c r="D347" s="6"/>
       <c r="E347" s="5"/>
-    </row>
-    <row r="348" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F347" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="5"/>
+      <c r="D348" s="6"/>
       <c r="E348" s="5"/>
-    </row>
-    <row r="349" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F348" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A349" s="6"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="5"/>
+      <c r="D349" s="6"/>
       <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F349" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A350" s="6"/>
+      <c r="B350" s="6"/>
       <c r="C350" s="5"/>
+      <c r="D350" s="6"/>
       <c r="E350" s="5"/>
-    </row>
-    <row r="351" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F350" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A351" s="6"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="5"/>
+      <c r="D351" s="6"/>
       <c r="E351" s="5"/>
-    </row>
-    <row r="352" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F351" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="5"/>
+      <c r="D352" s="6"/>
       <c r="E352" s="5"/>
-    </row>
-    <row r="353" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F352" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A353" s="6"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="5"/>
+      <c r="D353" s="6"/>
       <c r="E353" s="5"/>
-    </row>
-    <row r="354" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F353" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A354" s="6"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="5"/>
+      <c r="D354" s="6"/>
       <c r="E354" s="5"/>
-    </row>
-    <row r="355" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F354" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A355" s="6"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="5"/>
+      <c r="D355" s="6"/>
       <c r="E355" s="5"/>
-    </row>
-    <row r="356" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F355" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A356" s="6"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="5"/>
+      <c r="D356" s="6"/>
       <c r="E356" s="5"/>
-    </row>
-    <row r="357" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F356" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A357" s="6"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="5"/>
+      <c r="D357" s="6"/>
       <c r="E357" s="5"/>
-    </row>
-    <row r="358" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F357" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A358" s="6"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="5"/>
+      <c r="D358" s="6"/>
       <c r="E358" s="5"/>
-    </row>
-    <row r="359" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F358" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A359" s="6"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="5"/>
+      <c r="D359" s="6"/>
       <c r="E359" s="5"/>
-    </row>
-    <row r="360" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F359" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A360" s="6"/>
+      <c r="B360" s="6"/>
       <c r="C360" s="5"/>
+      <c r="D360" s="6"/>
       <c r="E360" s="5"/>
-    </row>
-    <row r="361" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F360" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A361" s="6"/>
+      <c r="B361" s="6"/>
       <c r="C361" s="5"/>
+      <c r="D361" s="6"/>
       <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F361" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A362" s="6"/>
+      <c r="B362" s="6"/>
       <c r="C362" s="5"/>
+      <c r="D362" s="6"/>
       <c r="E362" s="5"/>
-    </row>
-    <row r="363" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F362" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A363" s="6"/>
+      <c r="B363" s="6"/>
       <c r="C363" s="5"/>
+      <c r="D363" s="6"/>
       <c r="E363" s="5"/>
-    </row>
-    <row r="364" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F363" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A364" s="6"/>
+      <c r="B364" s="6"/>
       <c r="C364" s="5"/>
+      <c r="D364" s="6"/>
       <c r="E364" s="5"/>
-    </row>
-    <row r="365" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F364" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A365" s="6"/>
+      <c r="B365" s="6"/>
       <c r="C365" s="5"/>
+      <c r="D365" s="6"/>
       <c r="E365" s="5"/>
-    </row>
-    <row r="366" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F365" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A366" s="6"/>
+      <c r="B366" s="6"/>
       <c r="C366" s="5"/>
+      <c r="D366" s="6"/>
       <c r="E366" s="5"/>
-    </row>
-    <row r="367" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F366" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A367" s="6"/>
+      <c r="B367" s="6"/>
       <c r="C367" s="5"/>
+      <c r="D367" s="6"/>
       <c r="E367" s="5"/>
-    </row>
-    <row r="368" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F367" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A368" s="6"/>
+      <c r="B368" s="6"/>
       <c r="C368" s="5"/>
+      <c r="D368" s="6"/>
       <c r="E368" s="5"/>
-    </row>
-    <row r="369" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F368" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A369" s="6"/>
+      <c r="B369" s="6"/>
       <c r="C369" s="5"/>
+      <c r="D369" s="6"/>
       <c r="E369" s="5"/>
-    </row>
-    <row r="370" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F369" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A370" s="6"/>
+      <c r="B370" s="6"/>
       <c r="C370" s="5"/>
+      <c r="D370" s="6"/>
       <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F370" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A371" s="6"/>
+      <c r="B371" s="6"/>
       <c r="C371" s="5"/>
+      <c r="D371" s="6"/>
       <c r="E371" s="5"/>
-    </row>
-    <row r="372" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F371" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A372" s="6"/>
+      <c r="B372" s="6"/>
       <c r="C372" s="5"/>
+      <c r="D372" s="6"/>
       <c r="E372" s="5"/>
-    </row>
-    <row r="373" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F372" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A373" s="6"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="5"/>
+      <c r="D373" s="6"/>
       <c r="E373" s="5"/>
-    </row>
-    <row r="374" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F373" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="5"/>
+      <c r="D374" s="6"/>
       <c r="E374" s="5"/>
-    </row>
-    <row r="375" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F374" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A375" s="6"/>
+      <c r="B375" s="6"/>
       <c r="C375" s="5"/>
+      <c r="D375" s="6"/>
       <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F375" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A376" s="6"/>
+      <c r="B376" s="6"/>
       <c r="C376" s="5"/>
+      <c r="D376" s="6"/>
       <c r="E376" s="5"/>
-    </row>
-    <row r="377" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F376" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A377" s="6"/>
+      <c r="B377" s="6"/>
       <c r="C377" s="5"/>
+      <c r="D377" s="6"/>
       <c r="E377" s="5"/>
-    </row>
-    <row r="378" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F377" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A378" s="6"/>
+      <c r="B378" s="6"/>
       <c r="C378" s="5"/>
+      <c r="D378" s="6"/>
       <c r="E378" s="5"/>
-    </row>
-    <row r="379" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F378" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A379" s="6"/>
+      <c r="B379" s="6"/>
       <c r="C379" s="5"/>
+      <c r="D379" s="6"/>
       <c r="E379" s="5"/>
-    </row>
-    <row r="380" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F379" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A380" s="6"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="5"/>
+      <c r="D380" s="6"/>
       <c r="E380" s="5"/>
-    </row>
-    <row r="381" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F380" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A381" s="6"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="5"/>
+      <c r="D381" s="6"/>
       <c r="E381" s="5"/>
-    </row>
-    <row r="382" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F381" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="5"/>
+      <c r="D382" s="6"/>
       <c r="E382" s="5"/>
-    </row>
-    <row r="383" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F382" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A383" s="6"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="5"/>
+      <c r="D383" s="6"/>
       <c r="E383" s="5"/>
-    </row>
-    <row r="384" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F383" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A384" s="6"/>
+      <c r="B384" s="6"/>
       <c r="C384" s="5"/>
+      <c r="D384" s="6"/>
       <c r="E384" s="5"/>
-    </row>
-    <row r="385" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F384" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A385" s="6"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="5"/>
+      <c r="D385" s="6"/>
       <c r="E385" s="5"/>
-    </row>
-    <row r="386" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F385" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A386" s="6"/>
+      <c r="B386" s="6"/>
       <c r="C386" s="5"/>
+      <c r="D386" s="6"/>
       <c r="E386" s="5"/>
-    </row>
-    <row r="387" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F386" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A387" s="6"/>
+      <c r="B387" s="6"/>
       <c r="C387" s="5"/>
+      <c r="D387" s="6"/>
       <c r="E387" s="5"/>
-    </row>
-    <row r="388" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F387" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
       <c r="C388" s="5"/>
+      <c r="D388" s="6"/>
       <c r="E388" s="5"/>
-    </row>
-    <row r="389" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F388" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6"/>
       <c r="C389" s="5"/>
+      <c r="D389" s="6"/>
       <c r="E389" s="5"/>
-    </row>
-    <row r="390" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F389" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A390" s="6"/>
+      <c r="B390" s="6"/>
       <c r="C390" s="5"/>
+      <c r="D390" s="6"/>
       <c r="E390" s="5"/>
-    </row>
-    <row r="391" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F390" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A391" s="6"/>
+      <c r="B391" s="6"/>
       <c r="C391" s="5"/>
+      <c r="D391" s="6"/>
       <c r="E391" s="5"/>
-    </row>
-    <row r="392" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F391" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A392" s="6"/>
+      <c r="B392" s="6"/>
       <c r="C392" s="5"/>
+      <c r="D392" s="6"/>
       <c r="E392" s="5"/>
-    </row>
-    <row r="393" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F392" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A393" s="6"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="5"/>
+      <c r="D393" s="6"/>
       <c r="E393" s="5"/>
-    </row>
-    <row r="394" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F393" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A394" s="6"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="5"/>
+      <c r="D394" s="6"/>
       <c r="E394" s="5"/>
-    </row>
-    <row r="395" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F394" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A395" s="6"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="5"/>
+      <c r="D395" s="6"/>
       <c r="E395" s="5"/>
-    </row>
-    <row r="396" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F395" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A396" s="6"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="5"/>
+      <c r="D396" s="6"/>
       <c r="E396" s="5"/>
-    </row>
-    <row r="397" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F396" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A397" s="6"/>
+      <c r="B397" s="6"/>
       <c r="C397" s="5"/>
+      <c r="D397" s="6"/>
       <c r="E397" s="5"/>
-    </row>
-    <row r="398" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F397" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A398" s="6"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="5"/>
+      <c r="D398" s="6"/>
       <c r="E398" s="5"/>
-    </row>
-    <row r="399" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F398" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A399" s="6"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="5"/>
+      <c r="D399" s="6"/>
       <c r="E399" s="5"/>
-    </row>
-    <row r="400" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F399" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A400" s="6"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="5"/>
+      <c r="D400" s="6"/>
       <c r="E400" s="5"/>
-    </row>
-    <row r="401" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F400" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A401" s="6"/>
+      <c r="B401" s="6"/>
       <c r="C401" s="5"/>
+      <c r="D401" s="6"/>
       <c r="E401" s="5"/>
-    </row>
-    <row r="402" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F401" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A402" s="6"/>
+      <c r="B402" s="6"/>
       <c r="C402" s="5"/>
+      <c r="D402" s="6"/>
       <c r="E402" s="5"/>
-    </row>
-    <row r="403" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F402" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A403" s="6"/>
+      <c r="B403" s="6"/>
       <c r="C403" s="5"/>
+      <c r="D403" s="6"/>
       <c r="E403" s="5"/>
-    </row>
-    <row r="404" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F403" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A404" s="6"/>
+      <c r="B404" s="6"/>
       <c r="C404" s="5"/>
+      <c r="D404" s="6"/>
       <c r="E404" s="5"/>
-    </row>
-    <row r="405" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F404" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A405" s="6"/>
+      <c r="B405" s="6"/>
       <c r="C405" s="5"/>
+      <c r="D405" s="6"/>
       <c r="E405" s="5"/>
-    </row>
-    <row r="406" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F405" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A406" s="6"/>
+      <c r="B406" s="6"/>
       <c r="C406" s="5"/>
+      <c r="D406" s="6"/>
       <c r="E406" s="5"/>
-    </row>
-    <row r="407" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F406" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A407" s="6"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="5"/>
+      <c r="D407" s="6"/>
       <c r="E407" s="5"/>
-    </row>
-    <row r="408" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F407" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A408" s="6"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="5"/>
+      <c r="D408" s="6"/>
       <c r="E408" s="5"/>
-    </row>
-    <row r="409" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F408" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A409" s="6"/>
+      <c r="B409" s="6"/>
       <c r="C409" s="5"/>
+      <c r="D409" s="6"/>
       <c r="E409" s="5"/>
-    </row>
-    <row r="410" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F409" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A410" s="6"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="5"/>
+      <c r="D410" s="6"/>
       <c r="E410" s="5"/>
-    </row>
-    <row r="411" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F410" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A411" s="6"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="5"/>
+      <c r="D411" s="6"/>
       <c r="E411" s="5"/>
-    </row>
-    <row r="412" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F411" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A412" s="6"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="5"/>
+      <c r="D412" s="6"/>
       <c r="E412" s="5"/>
-    </row>
-    <row r="413" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F412" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A413" s="6"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="5"/>
+      <c r="D413" s="6"/>
       <c r="E413" s="5"/>
-    </row>
-    <row r="414" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F413" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A414" s="6"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="5"/>
+      <c r="D414" s="6"/>
       <c r="E414" s="5"/>
-    </row>
-    <row r="415" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F414" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A415" s="6"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="5"/>
+      <c r="D415" s="6"/>
       <c r="E415" s="5"/>
-    </row>
-    <row r="416" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F415" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A416" s="6"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="5"/>
+      <c r="D416" s="6"/>
       <c r="E416" s="5"/>
-    </row>
-    <row r="417" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F416" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A417" s="6"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="5"/>
+      <c r="D417" s="6"/>
       <c r="E417" s="5"/>
-    </row>
-    <row r="418" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F417" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A418" s="6"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="5"/>
+      <c r="D418" s="6"/>
       <c r="E418" s="5"/>
-    </row>
-    <row r="419" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F418" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A419" s="6"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="5"/>
+      <c r="D419" s="6"/>
       <c r="E419" s="5"/>
-    </row>
-    <row r="420" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F419" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A420" s="6"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="5"/>
+      <c r="D420" s="6"/>
       <c r="E420" s="5"/>
-    </row>
-    <row r="421" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F420" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A421" s="6"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="5"/>
+      <c r="D421" s="6"/>
       <c r="E421" s="5"/>
-    </row>
-    <row r="422" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F421" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A422" s="6"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="5"/>
+      <c r="D422" s="6"/>
       <c r="E422" s="5"/>
-    </row>
-    <row r="423" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F422" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A423" s="6"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="5"/>
+      <c r="D423" s="6"/>
       <c r="E423" s="5"/>
-    </row>
-    <row r="424" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F423" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A424" s="6"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="5"/>
+      <c r="D424" s="6"/>
       <c r="E424" s="5"/>
-    </row>
-    <row r="425" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F424" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A425" s="6"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="5"/>
+      <c r="D425" s="6"/>
       <c r="E425" s="5"/>
-    </row>
-    <row r="426" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F425" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A426" s="6"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="5"/>
+      <c r="D426" s="6"/>
       <c r="E426" s="5"/>
-    </row>
-    <row r="427" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F426" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A427" s="6"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="5"/>
+      <c r="D427" s="6"/>
       <c r="E427" s="5"/>
-    </row>
-    <row r="428" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F427" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A428" s="6"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="5"/>
+      <c r="D428" s="6"/>
       <c r="E428" s="5"/>
-    </row>
-    <row r="429" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F428" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A429" s="6"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="5"/>
+      <c r="D429" s="6"/>
       <c r="E429" s="5"/>
-    </row>
-    <row r="430" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F429" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A430" s="6"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="5"/>
+      <c r="D430" s="6"/>
       <c r="E430" s="5"/>
-    </row>
-    <row r="431" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F430" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A431" s="6"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="5"/>
+      <c r="D431" s="6"/>
       <c r="E431" s="5"/>
-    </row>
-    <row r="432" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F431" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A432" s="6"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="5"/>
+      <c r="D432" s="6"/>
       <c r="E432" s="5"/>
-    </row>
-    <row r="433" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F432" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A433" s="6"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="5"/>
+      <c r="D433" s="6"/>
       <c r="E433" s="5"/>
-    </row>
-    <row r="434" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F433" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A434" s="6"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="5"/>
+      <c r="D434" s="6"/>
       <c r="E434" s="5"/>
-    </row>
-    <row r="435" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F434" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A435" s="6"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="5"/>
+      <c r="D435" s="6"/>
       <c r="E435" s="5"/>
-    </row>
-    <row r="436" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F435" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A436" s="6"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="5"/>
+      <c r="D436" s="6"/>
       <c r="E436" s="5"/>
-    </row>
-    <row r="437" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F436" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A437" s="6"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="5"/>
+      <c r="D437" s="6"/>
       <c r="E437" s="5"/>
-    </row>
-    <row r="438" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F437" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A438" s="6"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="5"/>
+      <c r="D438" s="6"/>
       <c r="E438" s="5"/>
-    </row>
-    <row r="439" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F438" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A439" s="6"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="5"/>
+      <c r="D439" s="6"/>
       <c r="E439" s="5"/>
-    </row>
-    <row r="440" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F439" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A440" s="6"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="5"/>
+      <c r="D440" s="6"/>
       <c r="E440" s="5"/>
-    </row>
-    <row r="441" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F440" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A441" s="6"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="5"/>
+      <c r="D441" s="6"/>
       <c r="E441" s="5"/>
-    </row>
-    <row r="442" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F441" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A442" s="6"/>
+      <c r="B442" s="6"/>
       <c r="C442" s="5"/>
+      <c r="D442" s="6"/>
       <c r="E442" s="5"/>
-    </row>
-    <row r="443" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F442" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A443" s="6"/>
+      <c r="B443" s="6"/>
       <c r="C443" s="5"/>
+      <c r="D443" s="6"/>
       <c r="E443" s="5"/>
-    </row>
-    <row r="444" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F443" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A444" s="6"/>
+      <c r="B444" s="6"/>
       <c r="C444" s="5"/>
+      <c r="D444" s="6"/>
       <c r="E444" s="5"/>
-    </row>
-    <row r="445" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F444" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A445" s="6"/>
+      <c r="B445" s="6"/>
       <c r="C445" s="5"/>
+      <c r="D445" s="6"/>
       <c r="E445" s="5"/>
-    </row>
-    <row r="446" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F445" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A446" s="6"/>
+      <c r="B446" s="6"/>
       <c r="C446" s="5"/>
+      <c r="D446" s="6"/>
       <c r="E446" s="5"/>
-    </row>
-    <row r="447" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F446" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A447" s="6"/>
+      <c r="B447" s="6"/>
       <c r="C447" s="5"/>
+      <c r="D447" s="6"/>
       <c r="E447" s="5"/>
-    </row>
-    <row r="448" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F447" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A448" s="6"/>
+      <c r="B448" s="6"/>
       <c r="C448" s="5"/>
+      <c r="D448" s="6"/>
       <c r="E448" s="5"/>
-    </row>
-    <row r="449" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F448" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A449" s="6"/>
+      <c r="B449" s="6"/>
       <c r="C449" s="5"/>
+      <c r="D449" s="6"/>
       <c r="E449" s="5"/>
-    </row>
-    <row r="450" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F449" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A450" s="6"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="5"/>
+      <c r="D450" s="6"/>
       <c r="E450" s="5"/>
-    </row>
-    <row r="451" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F450" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A451" s="6"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="5"/>
+      <c r="D451" s="6"/>
       <c r="E451" s="5"/>
-    </row>
-    <row r="452" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F451" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A452" s="6"/>
+      <c r="B452" s="6"/>
       <c r="C452" s="5"/>
+      <c r="D452" s="6"/>
       <c r="E452" s="5"/>
-    </row>
-    <row r="453" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F452" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A453" s="6"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="5"/>
+      <c r="D453" s="6"/>
       <c r="E453" s="5"/>
-    </row>
-    <row r="454" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F453" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A454" s="6"/>
+      <c r="B454" s="6"/>
       <c r="C454" s="5"/>
+      <c r="D454" s="6"/>
       <c r="E454" s="5"/>
-    </row>
-    <row r="455" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F454" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A455" s="6"/>
+      <c r="B455" s="6"/>
       <c r="C455" s="5"/>
+      <c r="D455" s="6"/>
       <c r="E455" s="5"/>
-    </row>
-    <row r="456" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F455" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A456" s="6"/>
+      <c r="B456" s="6"/>
       <c r="C456" s="5"/>
+      <c r="D456" s="6"/>
       <c r="E456" s="5"/>
-    </row>
-    <row r="457" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F456" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A457" s="6"/>
+      <c r="B457" s="6"/>
       <c r="C457" s="5"/>
+      <c r="D457" s="6"/>
       <c r="E457" s="5"/>
-    </row>
-    <row r="458" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F457" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A458" s="6"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="5"/>
+      <c r="D458" s="6"/>
       <c r="E458" s="5"/>
-    </row>
-    <row r="459" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F458" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A459" s="6"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="5"/>
+      <c r="D459" s="6"/>
       <c r="E459" s="5"/>
-    </row>
-    <row r="460" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F459" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A460" s="6"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="5"/>
+      <c r="D460" s="6"/>
       <c r="E460" s="5"/>
-    </row>
-    <row r="461" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F460" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A461" s="6"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="5"/>
+      <c r="D461" s="6"/>
       <c r="E461" s="5"/>
-    </row>
-    <row r="462" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F461" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A462" s="6"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="5"/>
+      <c r="D462" s="6"/>
       <c r="E462" s="5"/>
-    </row>
-    <row r="463" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F462" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A463" s="6"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="5"/>
+      <c r="D463" s="6"/>
       <c r="E463" s="5"/>
-    </row>
-    <row r="464" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F463" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A464" s="6"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="5"/>
+      <c r="D464" s="6"/>
       <c r="E464" s="5"/>
-    </row>
-    <row r="465" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F464" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A465" s="6"/>
+      <c r="B465" s="6"/>
       <c r="C465" s="5"/>
+      <c r="D465" s="6"/>
       <c r="E465" s="5"/>
-    </row>
-    <row r="466" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F465" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A466" s="6"/>
+      <c r="B466" s="6"/>
       <c r="C466" s="5"/>
+      <c r="D466" s="6"/>
       <c r="E466" s="5"/>
-    </row>
-    <row r="467" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F466" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A467" s="6"/>
+      <c r="B467" s="6"/>
       <c r="C467" s="5"/>
+      <c r="D467" s="6"/>
       <c r="E467" s="5"/>
-    </row>
-    <row r="468" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F467" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A468" s="6"/>
+      <c r="B468" s="6"/>
       <c r="C468" s="5"/>
+      <c r="D468" s="6"/>
       <c r="E468" s="5"/>
-    </row>
-    <row r="469" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F468" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A469" s="6"/>
+      <c r="B469" s="6"/>
       <c r="C469" s="5"/>
+      <c r="D469" s="6"/>
       <c r="E469" s="5"/>
-    </row>
-    <row r="470" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F469" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A470" s="6"/>
+      <c r="B470" s="6"/>
       <c r="C470" s="5"/>
+      <c r="D470" s="6"/>
       <c r="E470" s="5"/>
-    </row>
-    <row r="471" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F470" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A471" s="6"/>
+      <c r="B471" s="6"/>
       <c r="C471" s="5"/>
+      <c r="D471" s="6"/>
       <c r="E471" s="5"/>
-    </row>
-    <row r="472" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F471" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A472" s="6"/>
+      <c r="B472" s="6"/>
       <c r="C472" s="5"/>
+      <c r="D472" s="6"/>
       <c r="E472" s="5"/>
-    </row>
-    <row r="473" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F472" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A473" s="6"/>
+      <c r="B473" s="6"/>
       <c r="C473" s="5"/>
+      <c r="D473" s="6"/>
       <c r="E473" s="5"/>
-    </row>
-    <row r="474" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F473" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A474" s="6"/>
+      <c r="B474" s="6"/>
       <c r="C474" s="5"/>
+      <c r="D474" s="6"/>
       <c r="E474" s="5"/>
-    </row>
-    <row r="475" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F474" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A475" s="6"/>
+      <c r="B475" s="6"/>
       <c r="C475" s="5"/>
+      <c r="D475" s="6"/>
       <c r="E475" s="5"/>
-    </row>
-    <row r="476" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F475" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A476" s="6"/>
+      <c r="B476" s="6"/>
       <c r="C476" s="5"/>
+      <c r="D476" s="6"/>
       <c r="E476" s="5"/>
-    </row>
-    <row r="477" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F476" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A477" s="6"/>
+      <c r="B477" s="6"/>
       <c r="C477" s="5"/>
+      <c r="D477" s="6"/>
       <c r="E477" s="5"/>
-    </row>
-    <row r="478" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F477" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A478" s="6"/>
+      <c r="B478" s="6"/>
       <c r="C478" s="5"/>
+      <c r="D478" s="6"/>
       <c r="E478" s="5"/>
-    </row>
-    <row r="479" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F478" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A479" s="6"/>
+      <c r="B479" s="6"/>
       <c r="C479" s="5"/>
+      <c r="D479" s="6"/>
       <c r="E479" s="5"/>
-    </row>
-    <row r="480" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F479" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A480" s="6"/>
+      <c r="B480" s="6"/>
       <c r="C480" s="5"/>
+      <c r="D480" s="6"/>
       <c r="E480" s="5"/>
-    </row>
-    <row r="481" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F480" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A481" s="6"/>
+      <c r="B481" s="6"/>
       <c r="C481" s="5"/>
+      <c r="D481" s="6"/>
       <c r="E481" s="5"/>
-    </row>
-    <row r="482" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F481" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A482" s="6"/>
+      <c r="B482" s="6"/>
       <c r="C482" s="5"/>
+      <c r="D482" s="6"/>
       <c r="E482" s="5"/>
-    </row>
-    <row r="483" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F482" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A483" s="6"/>
+      <c r="B483" s="6"/>
       <c r="C483" s="5"/>
+      <c r="D483" s="6"/>
       <c r="E483" s="5"/>
-    </row>
-    <row r="484" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F483" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A484" s="6"/>
+      <c r="B484" s="6"/>
       <c r="C484" s="5"/>
+      <c r="D484" s="6"/>
       <c r="E484" s="5"/>
-    </row>
-    <row r="485" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F484" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A485" s="6"/>
+      <c r="B485" s="6"/>
       <c r="C485" s="5"/>
+      <c r="D485" s="6"/>
       <c r="E485" s="5"/>
-    </row>
-    <row r="486" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F485" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A486" s="6"/>
+      <c r="B486" s="6"/>
       <c r="C486" s="5"/>
+      <c r="D486" s="6"/>
       <c r="E486" s="5"/>
-    </row>
-    <row r="487" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F486" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A487" s="6"/>
+      <c r="B487" s="6"/>
       <c r="C487" s="5"/>
+      <c r="D487" s="6"/>
       <c r="E487" s="5"/>
-    </row>
-    <row r="488" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F487" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A488" s="6"/>
+      <c r="B488" s="6"/>
       <c r="C488" s="5"/>
+      <c r="D488" s="6"/>
       <c r="E488" s="5"/>
-    </row>
-    <row r="489" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F488" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A489" s="6"/>
+      <c r="B489" s="6"/>
       <c r="C489" s="5"/>
+      <c r="D489" s="6"/>
       <c r="E489" s="5"/>
-    </row>
-    <row r="490" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F489" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A490" s="6"/>
+      <c r="B490" s="6"/>
       <c r="C490" s="5"/>
+      <c r="D490" s="6"/>
       <c r="E490" s="5"/>
-    </row>
-    <row r="491" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F490" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A491" s="6"/>
+      <c r="B491" s="6"/>
       <c r="C491" s="5"/>
+      <c r="D491" s="6"/>
       <c r="E491" s="5"/>
-    </row>
-    <row r="492" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F491" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A492" s="6"/>
+      <c r="B492" s="6"/>
       <c r="C492" s="5"/>
+      <c r="D492" s="6"/>
       <c r="E492" s="5"/>
-    </row>
-    <row r="493" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F492" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A493" s="6"/>
+      <c r="B493" s="6"/>
       <c r="C493" s="5"/>
+      <c r="D493" s="6"/>
       <c r="E493" s="5"/>
-    </row>
-    <row r="494" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F493" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A494" s="6"/>
+      <c r="B494" s="6"/>
       <c r="C494" s="5"/>
+      <c r="D494" s="6"/>
       <c r="E494" s="5"/>
-    </row>
-    <row r="495" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F494" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A495" s="6"/>
+      <c r="B495" s="6"/>
       <c r="C495" s="5"/>
+      <c r="D495" s="6"/>
       <c r="E495" s="5"/>
-    </row>
-    <row r="496" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F495" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A496" s="6"/>
+      <c r="B496" s="6"/>
       <c r="C496" s="5"/>
+      <c r="D496" s="6"/>
       <c r="E496" s="5"/>
-    </row>
-    <row r="497" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F496" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A497" s="6"/>
+      <c r="B497" s="6"/>
       <c r="C497" s="5"/>
+      <c r="D497" s="6"/>
       <c r="E497" s="5"/>
-    </row>
-    <row r="498" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F497" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A498" s="6"/>
+      <c r="B498" s="6"/>
       <c r="C498" s="5"/>
+      <c r="D498" s="6"/>
       <c r="E498" s="5"/>
-    </row>
-    <row r="499" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F498" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A499" s="6"/>
+      <c r="B499" s="6"/>
       <c r="C499" s="5"/>
+      <c r="D499" s="6"/>
       <c r="E499" s="5"/>
-    </row>
-    <row r="500" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F499" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A500" s="6"/>
+      <c r="B500" s="6"/>
       <c r="C500" s="5"/>
+      <c r="D500" s="6"/>
       <c r="E500" s="5"/>
-    </row>
-    <row r="501" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F500" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A501" s="6"/>
+      <c r="B501" s="6"/>
       <c r="C501" s="5"/>
+      <c r="D501" s="6"/>
       <c r="E501" s="5"/>
-    </row>
-    <row r="502" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F501" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A502" s="6"/>
+      <c r="B502" s="6"/>
       <c r="C502" s="5"/>
+      <c r="D502" s="6"/>
       <c r="E502" s="5"/>
-    </row>
-    <row r="503" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F502" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A503" s="6"/>
+      <c r="B503" s="6"/>
       <c r="C503" s="5"/>
+      <c r="D503" s="6"/>
       <c r="E503" s="5"/>
-    </row>
-    <row r="504" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F503" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A504" s="6"/>
+      <c r="B504" s="6"/>
       <c r="C504" s="5"/>
+      <c r="D504" s="6"/>
       <c r="E504" s="5"/>
-    </row>
-    <row r="505" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F504" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A505" s="6"/>
+      <c r="B505" s="6"/>
       <c r="C505" s="5"/>
+      <c r="D505" s="6"/>
       <c r="E505" s="5"/>
-    </row>
-    <row r="506" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F505" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A506" s="6"/>
+      <c r="B506" s="6"/>
       <c r="C506" s="5"/>
+      <c r="D506" s="6"/>
       <c r="E506" s="5"/>
-    </row>
-    <row r="507" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F506" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A507" s="6"/>
+      <c r="B507" s="6"/>
       <c r="C507" s="5"/>
+      <c r="D507" s="6"/>
       <c r="E507" s="5"/>
-    </row>
-    <row r="508" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F507" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A508" s="6"/>
+      <c r="B508" s="6"/>
       <c r="C508" s="5"/>
+      <c r="D508" s="6"/>
       <c r="E508" s="5"/>
-    </row>
-    <row r="509" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F508" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A509" s="6"/>
+      <c r="B509" s="6"/>
       <c r="C509" s="5"/>
+      <c r="D509" s="6"/>
       <c r="E509" s="5"/>
-    </row>
-    <row r="510" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F509" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A510" s="6"/>
+      <c r="B510" s="6"/>
       <c r="C510" s="5"/>
+      <c r="D510" s="6"/>
       <c r="E510" s="5"/>
-    </row>
-    <row r="511" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F510" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A511" s="6"/>
+      <c r="B511" s="6"/>
       <c r="C511" s="5"/>
+      <c r="D511" s="6"/>
       <c r="E511" s="5"/>
-    </row>
-    <row r="512" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F511" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A512" s="6"/>
+      <c r="B512" s="6"/>
       <c r="C512" s="5"/>
+      <c r="D512" s="6"/>
       <c r="E512" s="5"/>
-    </row>
-    <row r="513" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F512" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A513" s="6"/>
+      <c r="B513" s="6"/>
       <c r="C513" s="5"/>
+      <c r="D513" s="6"/>
       <c r="E513" s="5"/>
-    </row>
-    <row r="514" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F513" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A514" s="6"/>
+      <c r="B514" s="6"/>
       <c r="C514" s="5"/>
+      <c r="D514" s="6"/>
       <c r="E514" s="5"/>
-    </row>
-    <row r="515" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F514" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A515" s="6"/>
+      <c r="B515" s="6"/>
       <c r="C515" s="5"/>
+      <c r="D515" s="6"/>
       <c r="E515" s="5"/>
-    </row>
-    <row r="516" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F515" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A516" s="6"/>
+      <c r="B516" s="6"/>
       <c r="C516" s="5"/>
+      <c r="D516" s="6"/>
       <c r="E516" s="5"/>
-    </row>
-    <row r="517" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F516" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A517" s="6"/>
+      <c r="B517" s="6"/>
       <c r="C517" s="5"/>
+      <c r="D517" s="6"/>
       <c r="E517" s="5"/>
-    </row>
-    <row r="518" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F517" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A518" s="6"/>
+      <c r="B518" s="6"/>
       <c r="C518" s="5"/>
+      <c r="D518" s="6"/>
       <c r="E518" s="5"/>
-    </row>
-    <row r="519" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F518" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A519" s="6"/>
+      <c r="B519" s="6"/>
       <c r="C519" s="5"/>
+      <c r="D519" s="6"/>
       <c r="E519" s="5"/>
-    </row>
-    <row r="520" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F519" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A520" s="6"/>
+      <c r="B520" s="6"/>
       <c r="C520" s="5"/>
+      <c r="D520" s="6"/>
       <c r="E520" s="5"/>
-    </row>
-    <row r="521" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F520" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A521" s="6"/>
+      <c r="B521" s="6"/>
       <c r="C521" s="5"/>
+      <c r="D521" s="6"/>
       <c r="E521" s="5"/>
-    </row>
-    <row r="522" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F521" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A522" s="6"/>
+      <c r="B522" s="6"/>
       <c r="C522" s="5"/>
+      <c r="D522" s="6"/>
       <c r="E522" s="5"/>
-    </row>
-    <row r="523" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F522" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A523" s="6"/>
+      <c r="B523" s="6"/>
       <c r="C523" s="5"/>
+      <c r="D523" s="6"/>
       <c r="E523" s="5"/>
-    </row>
-    <row r="524" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F523" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A524" s="6"/>
+      <c r="B524" s="6"/>
       <c r="C524" s="5"/>
+      <c r="D524" s="6"/>
       <c r="E524" s="5"/>
-    </row>
-    <row r="525" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F524" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A525" s="6"/>
+      <c r="B525" s="6"/>
       <c r="C525" s="5"/>
+      <c r="D525" s="6"/>
       <c r="E525" s="5"/>
-    </row>
-    <row r="526" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F525" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A526" s="6"/>
+      <c r="B526" s="6"/>
       <c r="C526" s="5"/>
+      <c r="D526" s="6"/>
       <c r="E526" s="5"/>
-    </row>
-    <row r="527" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F526" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A527" s="6"/>
+      <c r="B527" s="6"/>
       <c r="C527" s="5"/>
+      <c r="D527" s="6"/>
       <c r="E527" s="5"/>
-    </row>
-    <row r="528" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F527" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A528" s="6"/>
+      <c r="B528" s="6"/>
       <c r="C528" s="5"/>
+      <c r="D528" s="6"/>
       <c r="E528" s="5"/>
-    </row>
-    <row r="529" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F528" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A529" s="6"/>
+      <c r="B529" s="6"/>
       <c r="C529" s="5"/>
+      <c r="D529" s="6"/>
       <c r="E529" s="5"/>
-    </row>
-    <row r="530" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F529" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A530" s="6"/>
+      <c r="B530" s="6"/>
       <c r="C530" s="5"/>
+      <c r="D530" s="6"/>
       <c r="E530" s="5"/>
-    </row>
-    <row r="531" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F530" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A531" s="6"/>
+      <c r="B531" s="6"/>
       <c r="C531" s="5"/>
+      <c r="D531" s="6"/>
       <c r="E531" s="5"/>
-    </row>
-    <row r="532" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F531" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A532" s="6"/>
+      <c r="B532" s="6"/>
       <c r="C532" s="5"/>
+      <c r="D532" s="6"/>
       <c r="E532" s="5"/>
-    </row>
-    <row r="533" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F532" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A533" s="6"/>
+      <c r="B533" s="6"/>
       <c r="C533" s="5"/>
+      <c r="D533" s="6"/>
       <c r="E533" s="5"/>
-    </row>
-    <row r="534" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F533" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A534" s="6"/>
+      <c r="B534" s="6"/>
       <c r="C534" s="5"/>
+      <c r="D534" s="6"/>
       <c r="E534" s="5"/>
-    </row>
-    <row r="535" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F534" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A535" s="6"/>
+      <c r="B535" s="6"/>
       <c r="C535" s="5"/>
+      <c r="D535" s="6"/>
       <c r="E535" s="5"/>
-    </row>
-    <row r="536" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F535" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A536" s="6"/>
+      <c r="B536" s="6"/>
       <c r="C536" s="5"/>
+      <c r="D536" s="6"/>
       <c r="E536" s="5"/>
-    </row>
-    <row r="537" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F536" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A537" s="6"/>
+      <c r="B537" s="6"/>
       <c r="C537" s="5"/>
+      <c r="D537" s="6"/>
       <c r="E537" s="5"/>
-    </row>
-    <row r="538" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F537" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A538" s="6"/>
+      <c r="B538" s="6"/>
       <c r="C538" s="5"/>
+      <c r="D538" s="6"/>
       <c r="E538" s="5"/>
-    </row>
-    <row r="539" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F538" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A539" s="6"/>
+      <c r="B539" s="6"/>
       <c r="C539" s="5"/>
+      <c r="D539" s="6"/>
       <c r="E539" s="5"/>
-    </row>
-    <row r="540" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F539" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A540" s="6"/>
+      <c r="B540" s="6"/>
       <c r="C540" s="5"/>
+      <c r="D540" s="6"/>
       <c r="E540" s="5"/>
-    </row>
-    <row r="541" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F540" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A541" s="6"/>
+      <c r="B541" s="6"/>
       <c r="C541" s="5"/>
+      <c r="D541" s="6"/>
       <c r="E541" s="5"/>
-    </row>
-    <row r="542" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F541" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A542" s="6"/>
+      <c r="B542" s="6"/>
       <c r="C542" s="5"/>
+      <c r="D542" s="6"/>
       <c r="E542" s="5"/>
-    </row>
-    <row r="543" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F542" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A543" s="6"/>
+      <c r="B543" s="6"/>
       <c r="C543" s="5"/>
+      <c r="D543" s="6"/>
       <c r="E543" s="5"/>
-    </row>
-    <row r="544" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F543" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A544" s="6"/>
+      <c r="B544" s="6"/>
       <c r="C544" s="5"/>
+      <c r="D544" s="6"/>
       <c r="E544" s="5"/>
-    </row>
-    <row r="545" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F544" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A545" s="6"/>
+      <c r="B545" s="6"/>
       <c r="C545" s="5"/>
+      <c r="D545" s="6"/>
       <c r="E545" s="5"/>
-    </row>
-    <row r="546" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F545" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A546" s="6"/>
+      <c r="B546" s="6"/>
       <c r="C546" s="5"/>
+      <c r="D546" s="6"/>
       <c r="E546" s="5"/>
-    </row>
-    <row r="547" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F546" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A547" s="6"/>
+      <c r="B547" s="6"/>
       <c r="C547" s="5"/>
+      <c r="D547" s="6"/>
       <c r="E547" s="5"/>
-    </row>
-    <row r="548" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F547" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A548" s="6"/>
+      <c r="B548" s="6"/>
       <c r="C548" s="5"/>
+      <c r="D548" s="6"/>
       <c r="E548" s="5"/>
-    </row>
-    <row r="549" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F548" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A549" s="6"/>
+      <c r="B549" s="6"/>
       <c r="C549" s="5"/>
+      <c r="D549" s="6"/>
       <c r="E549" s="5"/>
-    </row>
-    <row r="550" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F549" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A550" s="6"/>
+      <c r="B550" s="6"/>
       <c r="C550" s="5"/>
+      <c r="D550" s="6"/>
       <c r="E550" s="5"/>
-    </row>
-    <row r="551" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F550" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A551" s="6"/>
+      <c r="B551" s="6"/>
       <c r="C551" s="5"/>
+      <c r="D551" s="6"/>
       <c r="E551" s="5"/>
-    </row>
-    <row r="552" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F551" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A552" s="6"/>
+      <c r="B552" s="6"/>
       <c r="C552" s="5"/>
+      <c r="D552" s="6"/>
       <c r="E552" s="5"/>
-    </row>
-    <row r="553" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F552" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A553" s="6"/>
+      <c r="B553" s="6"/>
       <c r="C553" s="5"/>
+      <c r="D553" s="6"/>
       <c r="E553" s="5"/>
-    </row>
-    <row r="554" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F553" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A554" s="6"/>
+      <c r="B554" s="6"/>
       <c r="C554" s="5"/>
+      <c r="D554" s="6"/>
       <c r="E554" s="5"/>
-    </row>
-    <row r="555" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F554" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A555" s="6"/>
+      <c r="B555" s="6"/>
       <c r="C555" s="5"/>
+      <c r="D555" s="6"/>
       <c r="E555" s="5"/>
-    </row>
-    <row r="556" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F555" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A556" s="6"/>
+      <c r="B556" s="6"/>
       <c r="C556" s="5"/>
+      <c r="D556" s="6"/>
       <c r="E556" s="5"/>
-    </row>
-    <row r="557" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F556" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A557" s="6"/>
+      <c r="B557" s="6"/>
       <c r="C557" s="5"/>
+      <c r="D557" s="6"/>
       <c r="E557" s="5"/>
-    </row>
-    <row r="558" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F557" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A558" s="6"/>
+      <c r="B558" s="6"/>
       <c r="C558" s="5"/>
+      <c r="D558" s="6"/>
       <c r="E558" s="5"/>
-    </row>
-    <row r="559" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F558" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A559" s="6"/>
+      <c r="B559" s="6"/>
       <c r="C559" s="5"/>
+      <c r="D559" s="6"/>
       <c r="E559" s="5"/>
-    </row>
-    <row r="560" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F559" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A560" s="6"/>
+      <c r="B560" s="6"/>
       <c r="C560" s="5"/>
+      <c r="D560" s="6"/>
       <c r="E560" s="5"/>
-    </row>
-    <row r="561" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F560" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A561" s="6"/>
+      <c r="B561" s="6"/>
       <c r="C561" s="5"/>
+      <c r="D561" s="6"/>
       <c r="E561" s="5"/>
-    </row>
-    <row r="562" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F561" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A562" s="6"/>
+      <c r="B562" s="6"/>
       <c r="C562" s="5"/>
+      <c r="D562" s="6"/>
       <c r="E562" s="5"/>
-    </row>
-    <row r="563" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F562" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A563" s="6"/>
+      <c r="B563" s="6"/>
       <c r="C563" s="5"/>
+      <c r="D563" s="6"/>
       <c r="E563" s="5"/>
-    </row>
-    <row r="564" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F563" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A564" s="6"/>
+      <c r="B564" s="6"/>
       <c r="C564" s="5"/>
+      <c r="D564" s="6"/>
       <c r="E564" s="5"/>
-    </row>
-    <row r="565" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F564" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A565" s="6"/>
+      <c r="B565" s="6"/>
       <c r="C565" s="5"/>
+      <c r="D565" s="6"/>
       <c r="E565" s="5"/>
-    </row>
-    <row r="566" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F565" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A566" s="6"/>
+      <c r="B566" s="6"/>
       <c r="C566" s="5"/>
+      <c r="D566" s="6"/>
       <c r="E566" s="5"/>
-    </row>
-    <row r="567" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F566" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A567" s="6"/>
+      <c r="B567" s="6"/>
       <c r="C567" s="5"/>
+      <c r="D567" s="6"/>
       <c r="E567" s="5"/>
-    </row>
-    <row r="568" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F567" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A568" s="6"/>
+      <c r="B568" s="6"/>
       <c r="C568" s="5"/>
+      <c r="D568" s="6"/>
       <c r="E568" s="5"/>
-    </row>
-    <row r="569" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F568" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A569" s="6"/>
+      <c r="B569" s="6"/>
       <c r="C569" s="5"/>
+      <c r="D569" s="6"/>
       <c r="E569" s="5"/>
-    </row>
-    <row r="570" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F569" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A570" s="6"/>
+      <c r="B570" s="6"/>
       <c r="C570" s="5"/>
+      <c r="D570" s="6"/>
       <c r="E570" s="5"/>
-    </row>
-    <row r="571" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F570" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A571" s="6"/>
+      <c r="B571" s="6"/>
       <c r="C571" s="5"/>
+      <c r="D571" s="6"/>
       <c r="E571" s="5"/>
-    </row>
-    <row r="572" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F571" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A572" s="6"/>
+      <c r="B572" s="6"/>
       <c r="C572" s="5"/>
+      <c r="D572" s="6"/>
       <c r="E572" s="5"/>
-    </row>
-    <row r="573" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F572" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A573" s="6"/>
+      <c r="B573" s="6"/>
       <c r="C573" s="5"/>
+      <c r="D573" s="6"/>
       <c r="E573" s="5"/>
-    </row>
-    <row r="574" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F573" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A574" s="6"/>
+      <c r="B574" s="6"/>
       <c r="C574" s="5"/>
+      <c r="D574" s="6"/>
       <c r="E574" s="5"/>
-    </row>
-    <row r="575" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F574" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A575" s="6"/>
+      <c r="B575" s="6"/>
       <c r="C575" s="5"/>
+      <c r="D575" s="6"/>
       <c r="E575" s="5"/>
-    </row>
-    <row r="576" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F575" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A576" s="6"/>
+      <c r="B576" s="6"/>
       <c r="C576" s="5"/>
+      <c r="D576" s="6"/>
       <c r="E576" s="5"/>
-    </row>
-    <row r="577" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F576" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A577" s="6"/>
+      <c r="B577" s="6"/>
       <c r="C577" s="5"/>
+      <c r="D577" s="6"/>
       <c r="E577" s="5"/>
-    </row>
-    <row r="578" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F577" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A578" s="6"/>
+      <c r="B578" s="6"/>
       <c r="C578" s="5"/>
+      <c r="D578" s="6"/>
       <c r="E578" s="5"/>
-    </row>
-    <row r="579" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F578" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A579" s="6"/>
+      <c r="B579" s="6"/>
       <c r="C579" s="5"/>
+      <c r="D579" s="6"/>
       <c r="E579" s="5"/>
-    </row>
-    <row r="580" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F579" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A580" s="6"/>
+      <c r="B580" s="6"/>
       <c r="C580" s="5"/>
+      <c r="D580" s="6"/>
       <c r="E580" s="5"/>
-    </row>
-    <row r="581" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F580" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A581" s="6"/>
+      <c r="B581" s="6"/>
       <c r="C581" s="5"/>
+      <c r="D581" s="6"/>
       <c r="E581" s="5"/>
-    </row>
-    <row r="582" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F581" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A582" s="6"/>
+      <c r="B582" s="6"/>
       <c r="C582" s="5"/>
+      <c r="D582" s="6"/>
       <c r="E582" s="5"/>
-    </row>
-    <row r="583" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F582" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A583" s="6"/>
+      <c r="B583" s="6"/>
       <c r="C583" s="5"/>
+      <c r="D583" s="6"/>
       <c r="E583" s="5"/>
-    </row>
-    <row r="584" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F583" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A584" s="6"/>
+      <c r="B584" s="6"/>
       <c r="C584" s="5"/>
+      <c r="D584" s="6"/>
       <c r="E584" s="5"/>
-    </row>
-    <row r="585" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F584" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A585" s="6"/>
+      <c r="B585" s="6"/>
       <c r="C585" s="5"/>
+      <c r="D585" s="6"/>
       <c r="E585" s="5"/>
-    </row>
-    <row r="586" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F585" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A586" s="6"/>
+      <c r="B586" s="6"/>
       <c r="C586" s="5"/>
+      <c r="D586" s="6"/>
       <c r="E586" s="5"/>
-    </row>
-    <row r="587" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F586" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A587" s="6"/>
+      <c r="B587" s="6"/>
       <c r="C587" s="5"/>
+      <c r="D587" s="6"/>
       <c r="E587" s="5"/>
-    </row>
-    <row r="588" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F587" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A588" s="6"/>
+      <c r="B588" s="6"/>
       <c r="C588" s="5"/>
+      <c r="D588" s="6"/>
       <c r="E588" s="5"/>
-    </row>
-    <row r="589" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F588" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A589" s="6"/>
+      <c r="B589" s="6"/>
       <c r="C589" s="5"/>
+      <c r="D589" s="6"/>
       <c r="E589" s="5"/>
-    </row>
-    <row r="590" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F589" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A590" s="6"/>
+      <c r="B590" s="6"/>
       <c r="C590" s="5"/>
+      <c r="D590" s="6"/>
       <c r="E590" s="5"/>
-    </row>
-    <row r="591" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F590" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A591" s="6"/>
+      <c r="B591" s="6"/>
       <c r="C591" s="5"/>
+      <c r="D591" s="6"/>
       <c r="E591" s="5"/>
-    </row>
-    <row r="592" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F591" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A592" s="6"/>
+      <c r="B592" s="6"/>
       <c r="C592" s="5"/>
+      <c r="D592" s="6"/>
       <c r="E592" s="5"/>
-    </row>
-    <row r="593" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F592" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A593" s="6"/>
+      <c r="B593" s="6"/>
       <c r="C593" s="5"/>
+      <c r="D593" s="6"/>
       <c r="E593" s="5"/>
-    </row>
-    <row r="594" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F593" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A594" s="6"/>
+      <c r="B594" s="6"/>
       <c r="C594" s="5"/>
+      <c r="D594" s="6"/>
       <c r="E594" s="5"/>
-    </row>
-    <row r="595" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F594" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A595" s="6"/>
+      <c r="B595" s="6"/>
       <c r="C595" s="5"/>
+      <c r="D595" s="6"/>
       <c r="E595" s="5"/>
-    </row>
-    <row r="596" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F595" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A596" s="6"/>
+      <c r="B596" s="6"/>
       <c r="C596" s="5"/>
+      <c r="D596" s="6"/>
       <c r="E596" s="5"/>
-    </row>
-    <row r="597" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F596" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A597" s="6"/>
+      <c r="B597" s="6"/>
       <c r="C597" s="5"/>
+      <c r="D597" s="6"/>
       <c r="E597" s="5"/>
-    </row>
-    <row r="598" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F597" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A598" s="6"/>
+      <c r="B598" s="6"/>
       <c r="C598" s="5"/>
+      <c r="D598" s="6"/>
       <c r="E598" s="5"/>
-    </row>
-    <row r="599" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F598" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A599" s="6"/>
+      <c r="B599" s="6"/>
       <c r="C599" s="5"/>
+      <c r="D599" s="6"/>
       <c r="E599" s="5"/>
-    </row>
-    <row r="600" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F599" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A600" s="6"/>
+      <c r="B600" s="6"/>
       <c r="C600" s="5"/>
+      <c r="D600" s="6"/>
       <c r="E600" s="5"/>
-    </row>
-    <row r="601" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F600" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A601" s="6"/>
+      <c r="B601" s="6"/>
       <c r="C601" s="5"/>
+      <c r="D601" s="6"/>
       <c r="E601" s="5"/>
-    </row>
-    <row r="602" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F601" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A602" s="6"/>
+      <c r="B602" s="6"/>
       <c r="C602" s="5"/>
+      <c r="D602" s="6"/>
       <c r="E602" s="5"/>
-    </row>
-    <row r="603" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F602" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A603" s="6"/>
+      <c r="B603" s="6"/>
       <c r="C603" s="5"/>
+      <c r="D603" s="6"/>
       <c r="E603" s="5"/>
-    </row>
-    <row r="604" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F603" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A604" s="6"/>
+      <c r="B604" s="6"/>
       <c r="C604" s="5"/>
+      <c r="D604" s="6"/>
       <c r="E604" s="5"/>
-    </row>
-    <row r="605" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F604" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A605" s="6"/>
+      <c r="B605" s="6"/>
       <c r="C605" s="5"/>
+      <c r="D605" s="6"/>
       <c r="E605" s="5"/>
-    </row>
-    <row r="606" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F605" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A606" s="6"/>
+      <c r="B606" s="6"/>
       <c r="C606" s="5"/>
+      <c r="D606" s="6"/>
       <c r="E606" s="5"/>
+      <c r="F606" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>